--- a/201711 DIARY/20171116 FOOD DIARY.xlsx
+++ b/201711 DIARY/20171116 FOOD DIARY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>item</t>
   </si>
@@ -39,48 +39,6 @@
         <rFont val="手札體-繁 標準體"/>
       </rPr>
       <t>蛋白質</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Comic Sans MS"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="手札體-繁 標準體"/>
-      </rPr>
-      <t>脂肪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Comic Sans MS"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>F (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="手札體-繁 標準體"/>
-      </rPr>
-      <t>碳水化合物</t>
     </r>
     <r>
       <rPr>
@@ -235,47 +193,99 @@
   </si>
   <si>
     <t>無糖高纖豆漿</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>茶葉蛋</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>統一生機 有機綜合堅果50g</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>菜菜(甘藍菜 番茄 小黃瓜 杏包菇 金針菇)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>煎蛋 *3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>全聯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>煎蛋</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>芝司樂高鈣低脂起司</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉 (397g)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉(100g)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>芝司樂高鈣低脂起司 *2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>雞胸肉 (397g)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>煎蛋 *2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>雞胸肉(100g)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <r>
+      <t>C (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="手札體-繁 標準體"/>
+      </rPr>
+      <t>碳水化合物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Comic Sans MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="手札體-繁 標準體"/>
+      </rPr>
+      <t>脂肪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Comic Sans MS"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>無子葡萄</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-100</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -285,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -354,10 +364,6 @@
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Comic Sans MS"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -478,9 +484,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -548,13 +554,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -572,8 +575,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -588,15 +600,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,7 +884,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -908,32 +911,32 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -947,7 +950,7 @@
     </row>
     <row r="2" spans="1:26" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>9</v>
@@ -961,7 +964,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="13"/>
       <c r="G2" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2">
         <v>5.7</v>
@@ -997,7 +1000,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2">
         <v>6.8</v>
@@ -1027,7 +1030,7 @@
     </row>
     <row r="4" spans="1:26" ht="48" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1057,16 +1060,16 @@
     </row>
     <row r="5" spans="1:26" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6">
-        <v>18.72</v>
+        <v>12.48</v>
       </c>
       <c r="C5" s="6">
-        <v>20.28</v>
+        <v>13.52</v>
       </c>
       <c r="D5" s="6">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="13"/>
@@ -1092,58 +1095,58 @@
       <c r="Z5" s="15"/>
     </row>
     <row r="6" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="39">
+      <c r="A6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="34">
         <v>8.4</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="34">
         <v>6.2</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="34">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="29">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="28">
         <v>29.55</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>7.72</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="39">
+      <c r="A7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="34">
         <v>117.3135</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="34">
         <v>30.648399999999999</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="6"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
@@ -1168,10 +1171,10 @@
       <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="6"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
@@ -1196,18 +1199,26 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="A9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="34">
+        <v>0.72</v>
+      </c>
+      <c r="C9" s="34">
+        <v>0.16</v>
+      </c>
+      <c r="D9" s="34">
+        <v>18.100000000000001</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
+      <c r="G9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1226,14 +1237,14 @@
       <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="6"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4">
         <v>13.6</v>
@@ -1262,14 +1273,14 @@
       <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="4">
         <v>11.6</v>
@@ -1298,10 +1309,10 @@
       <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
@@ -1326,10 +1337,10 @@
       <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="6"/>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
@@ -1354,10 +1365,10 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="6"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
@@ -1382,18 +1393,18 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="6"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="G15" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1412,14 +1423,14 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13"/>
       <c r="G16" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H16" s="4">
         <v>13.7</v>
@@ -1448,14 +1459,14 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="6"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H17" s="4">
         <v>17.399999999999999</v>
@@ -1484,22 +1495,22 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="6"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="32">
+      <c r="G18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="31">
         <v>15.3</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="31">
         <v>8.6</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="31">
         <v>15.8</v>
       </c>
       <c r="K18" s="13"/>
@@ -1521,34 +1532,34 @@
     </row>
     <row r="19" spans="1:26" ht="26" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="19">
         <f>SUM(B2:B18)</f>
-        <v>153.43350000000001</v>
+        <v>147.9135</v>
       </c>
       <c r="C19" s="19">
         <f>SUM(C2:C18)</f>
-        <v>79.628399999999999</v>
+        <v>73.028399999999991</v>
       </c>
       <c r="D19" s="19">
         <f>SUM(D2:D18)</f>
-        <v>18.79</v>
+        <v>36.46</v>
       </c>
       <c r="E19" s="19">
         <f>B19*4+C19*9+D19*4</f>
-        <v>1405.5496000000001</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="32">
+        <v>1394.7495999999999</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="31">
         <v>7</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="31">
         <v>1</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="31">
         <v>5</v>
       </c>
     </row>
@@ -1559,7 +1570,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="20">
         <f>SUM(E3:E19)</f>
-        <v>1405.5496000000001</v>
+        <v>1394.7495999999999</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="4"/>
@@ -1568,6293 +1579,6295 @@
     </row>
     <row r="21" spans="1:26" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="D21" s="23">
-        <v>50</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
+      <c r="B21" s="22">
+        <v>132</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:26" ht="26" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="32">
+      <c r="E22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="31">
         <v>6.24</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="31">
         <v>6.76</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="31">
         <v>0.43</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="E23" s="4"/>
-      <c r="G23" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="32">
+      <c r="G23" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="31">
         <v>4.2</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="31">
         <v>3.1</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="31">
         <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A24" s="24"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="23"/>
+      <c r="E24" s="25"/>
       <c r="G24" s="14"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A25" s="24"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="23"/>
+      <c r="E25" s="25"/>
       <c r="G25" s="14"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A26" s="24"/>
-      <c r="E26" s="26"/>
+      <c r="A26" s="23"/>
+      <c r="E26" s="25"/>
       <c r="G26" s="14"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="G27" s="14"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="G28" s="14"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="G29" s="14"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
       <c r="G30" s="14"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="G31" s="14"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:26" ht="24" x14ac:dyDescent="0.15">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
       <c r="G32" s="14"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="G33" s="14"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="G34" s="14"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="G35" s="14"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="G36" s="14"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="G37" s="14"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="G38" s="14"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="G39" s="14"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="G40" s="14"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
       <c r="G41" s="14"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
       <c r="G42" s="14"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="G43" s="14"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="G44" s="14"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="G45" s="14"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
       <c r="G46" s="14"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
       <c r="G47" s="14"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
       <c r="G48" s="14"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
       <c r="G49" s="14"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
       <c r="G50" s="14"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
       <c r="G51" s="14"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
       <c r="G52" s="14"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A53" s="24"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
       <c r="G53" s="14"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A54" s="24"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
       <c r="G54" s="14"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
       <c r="G55" s="14"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
       <c r="G56" s="14"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
       <c r="G57" s="14"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
       <c r="G58" s="14"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A59" s="24"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
       <c r="G59" s="14"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
       <c r="G60" s="14"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
       <c r="G61" s="14"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
       <c r="G62" s="14"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
       <c r="G63" s="14"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
       <c r="G64" s="14"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
       <c r="G65" s="14"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
       <c r="G66" s="14"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
       <c r="G67" s="14"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A68" s="24"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
       <c r="G68" s="14"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
       <c r="G69" s="14"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="G70" s="14"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A71" s="24"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
       <c r="G71" s="14"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
       <c r="G72" s="14"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A73" s="24"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
       <c r="G73" s="14"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
       <c r="G74" s="14"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A75" s="24"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
       <c r="G75" s="14"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A76" s="24"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
       <c r="G76" s="14"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
       <c r="G77" s="14"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A78" s="24"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
       <c r="G78" s="14"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A79" s="24"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
       <c r="G79" s="14"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A80" s="24"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
       <c r="G80" s="14"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A81" s="24"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
       <c r="G81" s="14"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A82" s="24"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
       <c r="G82" s="14"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A83" s="24"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
       <c r="G83" s="14"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A84" s="24"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
       <c r="G84" s="14"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A85" s="24"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
       <c r="G85" s="14"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A86" s="24"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
       <c r="G86" s="14"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A87" s="24"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
       <c r="G87" s="14"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A88" s="24"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
       <c r="G88" s="14"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A89" s="24"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
       <c r="G89" s="14"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A90" s="24"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
       <c r="G90" s="14"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A91" s="24"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
       <c r="G91" s="14"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A92" s="24"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
       <c r="G92" s="14"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A93" s="24"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
       <c r="G93" s="14"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A94" s="24"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
       <c r="G94" s="14"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A95" s="24"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
       <c r="G95" s="14"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A96" s="24"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
       <c r="G96" s="14"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A97" s="24"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
       <c r="G97" s="14"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A98" s="24"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
       <c r="G98" s="14"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A99" s="24"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
       <c r="G99" s="14"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A100" s="24"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
       <c r="G100" s="14"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A101" s="24"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
       <c r="G101" s="14"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A102" s="24"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
       <c r="G102" s="14"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
       <c r="G103" s="14"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A104" s="24"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
       <c r="G104" s="14"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A105" s="24"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="A105" s="23"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
       <c r="G105" s="14"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A106" s="24"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
       <c r="G106" s="14"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A107" s="24"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
       <c r="G107" s="14"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A108" s="24"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
       <c r="G108" s="14"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A109" s="24"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
       <c r="G109" s="14"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A110" s="24"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
       <c r="G110" s="14"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A111" s="24"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
       <c r="G111" s="14"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A112" s="24"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
       <c r="G112" s="14"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
     <row r="113" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A113" s="24"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
       <c r="G113" s="14"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A114" s="24"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
       <c r="G114" s="14"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A115" s="24"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
       <c r="G115" s="14"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A116" s="24"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
       <c r="G116" s="14"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
     <row r="117" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A117" s="24"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
       <c r="G117" s="14"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
     <row r="118" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A118" s="24"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
       <c r="G118" s="14"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
     <row r="119" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A119" s="24"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
       <c r="G119" s="14"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
     <row r="120" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A120" s="24"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
       <c r="G120" s="14"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A121" s="24"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
       <c r="G121" s="14"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A122" s="24"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
       <c r="G122" s="14"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A123" s="24"/>
+      <c r="A123" s="23"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A124" s="24"/>
+      <c r="A124" s="23"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A125" s="24"/>
+      <c r="A125" s="23"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A126" s="24"/>
+      <c r="A126" s="23"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A127" s="24"/>
+      <c r="A127" s="23"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A128" s="24"/>
+      <c r="A128" s="23"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A129" s="24"/>
+      <c r="A129" s="23"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A130" s="24"/>
+      <c r="A130" s="23"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A131" s="24"/>
+      <c r="A131" s="23"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A132" s="24"/>
+      <c r="A132" s="23"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A133" s="24"/>
+      <c r="A133" s="23"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A134" s="24"/>
+      <c r="A134" s="23"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A135" s="24"/>
+      <c r="A135" s="23"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A136" s="24"/>
+      <c r="A136" s="23"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A137" s="24"/>
+      <c r="A137" s="23"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A138" s="24"/>
+      <c r="A138" s="23"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A139" s="24"/>
+      <c r="A139" s="23"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A140" s="24"/>
+      <c r="A140" s="23"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A141" s="24"/>
+      <c r="A141" s="23"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A142" s="24"/>
+      <c r="A142" s="23"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A143" s="24"/>
+      <c r="A143" s="23"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A144" s="24"/>
+      <c r="A144" s="23"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A145" s="24"/>
+      <c r="A145" s="23"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A146" s="24"/>
+      <c r="A146" s="23"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A147" s="24"/>
+      <c r="A147" s="23"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A148" s="24"/>
+      <c r="A148" s="23"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A149" s="24"/>
+      <c r="A149" s="23"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A150" s="24"/>
+      <c r="A150" s="23"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A151" s="24"/>
+      <c r="A151" s="23"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A152" s="24"/>
+      <c r="A152" s="23"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A153" s="24"/>
+      <c r="A153" s="23"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A154" s="24"/>
+      <c r="A154" s="23"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A155" s="24"/>
+      <c r="A155" s="23"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A156" s="24"/>
+      <c r="A156" s="23"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A157" s="24"/>
+      <c r="A157" s="23"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A158" s="24"/>
+      <c r="A158" s="23"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A159" s="24"/>
+      <c r="A159" s="23"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A160" s="24"/>
+      <c r="A160" s="23"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A161" s="24"/>
+      <c r="A161" s="23"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A162" s="24"/>
+      <c r="A162" s="23"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A163" s="24"/>
+      <c r="A163" s="23"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A164" s="24"/>
+      <c r="A164" s="23"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A165" s="24"/>
+      <c r="A165" s="23"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A166" s="24"/>
+      <c r="A166" s="23"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A167" s="24"/>
+      <c r="A167" s="23"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A168" s="24"/>
+      <c r="A168" s="23"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A169" s="24"/>
+      <c r="A169" s="23"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A170" s="24"/>
+      <c r="A170" s="23"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A171" s="24"/>
+      <c r="A171" s="23"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A172" s="24"/>
+      <c r="A172" s="23"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A173" s="24"/>
+      <c r="A173" s="23"/>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A174" s="24"/>
+      <c r="A174" s="23"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A175" s="24"/>
+      <c r="A175" s="23"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A176" s="24"/>
+      <c r="A176" s="23"/>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A177" s="24"/>
+      <c r="A177" s="23"/>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A178" s="24"/>
+      <c r="A178" s="23"/>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A179" s="24"/>
+      <c r="A179" s="23"/>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A180" s="24"/>
+      <c r="A180" s="23"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A181" s="24"/>
+      <c r="A181" s="23"/>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A182" s="24"/>
+      <c r="A182" s="23"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A183" s="24"/>
+      <c r="A183" s="23"/>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A184" s="24"/>
+      <c r="A184" s="23"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A185" s="24"/>
+      <c r="A185" s="23"/>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A186" s="24"/>
+      <c r="A186" s="23"/>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A187" s="24"/>
+      <c r="A187" s="23"/>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A188" s="24"/>
+      <c r="A188" s="23"/>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A189" s="24"/>
+      <c r="A189" s="23"/>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A190" s="24"/>
+      <c r="A190" s="23"/>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A191" s="24"/>
+      <c r="A191" s="23"/>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A192" s="24"/>
+      <c r="A192" s="23"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A193" s="24"/>
+      <c r="A193" s="23"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A194" s="24"/>
+      <c r="A194" s="23"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A195" s="24"/>
+      <c r="A195" s="23"/>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A196" s="24"/>
+      <c r="A196" s="23"/>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A197" s="24"/>
+      <c r="A197" s="23"/>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A198" s="24"/>
+      <c r="A198" s="23"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A199" s="24"/>
+      <c r="A199" s="23"/>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A200" s="24"/>
+      <c r="A200" s="23"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A201" s="24"/>
+      <c r="A201" s="23"/>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A202" s="24"/>
+      <c r="A202" s="23"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A203" s="24"/>
+      <c r="A203" s="23"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A204" s="24"/>
+      <c r="A204" s="23"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A205" s="24"/>
+      <c r="A205" s="23"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A206" s="24"/>
+      <c r="A206" s="23"/>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A207" s="24"/>
+      <c r="A207" s="23"/>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A208" s="24"/>
+      <c r="A208" s="23"/>
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A209" s="24"/>
+      <c r="A209" s="23"/>
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A210" s="24"/>
+      <c r="A210" s="23"/>
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A211" s="24"/>
+      <c r="A211" s="23"/>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A212" s="24"/>
+      <c r="A212" s="23"/>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A213" s="24"/>
+      <c r="A213" s="23"/>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A214" s="24"/>
+      <c r="A214" s="23"/>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A215" s="24"/>
+      <c r="A215" s="23"/>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A216" s="24"/>
+      <c r="A216" s="23"/>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A217" s="24"/>
+      <c r="A217" s="23"/>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A218" s="24"/>
+      <c r="A218" s="23"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A219" s="24"/>
+      <c r="A219" s="23"/>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A220" s="24"/>
+      <c r="A220" s="23"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A221" s="24"/>
+      <c r="A221" s="23"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A222" s="24"/>
+      <c r="A222" s="23"/>
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A223" s="24"/>
+      <c r="A223" s="23"/>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A224" s="24"/>
+      <c r="A224" s="23"/>
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A225" s="24"/>
+      <c r="A225" s="23"/>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A226" s="24"/>
+      <c r="A226" s="23"/>
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A227" s="24"/>
+      <c r="A227" s="23"/>
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A228" s="24"/>
+      <c r="A228" s="23"/>
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A229" s="24"/>
+      <c r="A229" s="23"/>
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A230" s="24"/>
+      <c r="A230" s="23"/>
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A231" s="24"/>
+      <c r="A231" s="23"/>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A232" s="24"/>
+      <c r="A232" s="23"/>
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A233" s="24"/>
+      <c r="A233" s="23"/>
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A234" s="24"/>
+      <c r="A234" s="23"/>
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A235" s="24"/>
+      <c r="A235" s="23"/>
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A236" s="24"/>
+      <c r="A236" s="23"/>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A237" s="24"/>
+      <c r="A237" s="23"/>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A238" s="24"/>
+      <c r="A238" s="23"/>
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A239" s="24"/>
+      <c r="A239" s="23"/>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A240" s="24"/>
+      <c r="A240" s="23"/>
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A241" s="24"/>
+      <c r="A241" s="23"/>
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A242" s="24"/>
+      <c r="A242" s="23"/>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A243" s="24"/>
+      <c r="A243" s="23"/>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A244" s="24"/>
+      <c r="A244" s="23"/>
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A245" s="24"/>
+      <c r="A245" s="23"/>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A246" s="24"/>
+      <c r="A246" s="23"/>
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A247" s="24"/>
+      <c r="A247" s="23"/>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A248" s="24"/>
+      <c r="A248" s="23"/>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A249" s="24"/>
+      <c r="A249" s="23"/>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A250" s="24"/>
+      <c r="A250" s="23"/>
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A251" s="24"/>
+      <c r="A251" s="23"/>
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A252" s="24"/>
+      <c r="A252" s="23"/>
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A253" s="24"/>
+      <c r="A253" s="23"/>
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A254" s="24"/>
+      <c r="A254" s="23"/>
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A255" s="24"/>
+      <c r="A255" s="23"/>
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A256" s="24"/>
+      <c r="A256" s="23"/>
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A257" s="24"/>
+      <c r="A257" s="23"/>
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A258" s="24"/>
+      <c r="A258" s="23"/>
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A259" s="24"/>
+      <c r="A259" s="23"/>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A260" s="24"/>
+      <c r="A260" s="23"/>
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A261" s="24"/>
+      <c r="A261" s="23"/>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A262" s="24"/>
+      <c r="A262" s="23"/>
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A263" s="24"/>
+      <c r="A263" s="23"/>
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A264" s="24"/>
+      <c r="A264" s="23"/>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A265" s="24"/>
+      <c r="A265" s="23"/>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A266" s="24"/>
+      <c r="A266" s="23"/>
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A267" s="24"/>
+      <c r="A267" s="23"/>
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A268" s="24"/>
+      <c r="A268" s="23"/>
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A269" s="24"/>
+      <c r="A269" s="23"/>
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A270" s="24"/>
+      <c r="A270" s="23"/>
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A271" s="24"/>
+      <c r="A271" s="23"/>
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A272" s="24"/>
+      <c r="A272" s="23"/>
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A273" s="24"/>
+      <c r="A273" s="23"/>
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A274" s="24"/>
+      <c r="A274" s="23"/>
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A275" s="24"/>
+      <c r="A275" s="23"/>
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A276" s="24"/>
+      <c r="A276" s="23"/>
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A277" s="24"/>
+      <c r="A277" s="23"/>
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A278" s="24"/>
+      <c r="A278" s="23"/>
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A279" s="24"/>
+      <c r="A279" s="23"/>
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A280" s="24"/>
+      <c r="A280" s="23"/>
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A281" s="24"/>
+      <c r="A281" s="23"/>
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A282" s="24"/>
+      <c r="A282" s="23"/>
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A283" s="24"/>
+      <c r="A283" s="23"/>
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A284" s="24"/>
+      <c r="A284" s="23"/>
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A285" s="24"/>
+      <c r="A285" s="23"/>
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A286" s="24"/>
+      <c r="A286" s="23"/>
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A287" s="24"/>
+      <c r="A287" s="23"/>
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A288" s="24"/>
+      <c r="A288" s="23"/>
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A289" s="24"/>
+      <c r="A289" s="23"/>
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A290" s="24"/>
+      <c r="A290" s="23"/>
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A291" s="24"/>
+      <c r="A291" s="23"/>
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A292" s="24"/>
+      <c r="A292" s="23"/>
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A293" s="24"/>
+      <c r="A293" s="23"/>
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A294" s="24"/>
+      <c r="A294" s="23"/>
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A295" s="24"/>
+      <c r="A295" s="23"/>
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A296" s="24"/>
+      <c r="A296" s="23"/>
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A297" s="24"/>
+      <c r="A297" s="23"/>
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A298" s="24"/>
+      <c r="A298" s="23"/>
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A299" s="24"/>
+      <c r="A299" s="23"/>
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A300" s="24"/>
+      <c r="A300" s="23"/>
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A301" s="24"/>
+      <c r="A301" s="23"/>
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A302" s="24"/>
+      <c r="A302" s="23"/>
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A303" s="24"/>
+      <c r="A303" s="23"/>
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A304" s="24"/>
+      <c r="A304" s="23"/>
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A305" s="24"/>
+      <c r="A305" s="23"/>
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A306" s="24"/>
+      <c r="A306" s="23"/>
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A307" s="24"/>
+      <c r="A307" s="23"/>
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A308" s="24"/>
+      <c r="A308" s="23"/>
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A309" s="24"/>
+      <c r="A309" s="23"/>
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A310" s="24"/>
+      <c r="A310" s="23"/>
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A311" s="24"/>
+      <c r="A311" s="23"/>
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A312" s="24"/>
+      <c r="A312" s="23"/>
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A313" s="24"/>
+      <c r="A313" s="23"/>
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A314" s="24"/>
+      <c r="A314" s="23"/>
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5"/>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A315" s="24"/>
+      <c r="A315" s="23"/>
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
       <c r="J315" s="5"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A316" s="24"/>
+      <c r="A316" s="23"/>
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
       <c r="J316" s="5"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A317" s="24"/>
+      <c r="A317" s="23"/>
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A318" s="24"/>
+      <c r="A318" s="23"/>
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
       <c r="J318" s="5"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A319" s="24"/>
+      <c r="A319" s="23"/>
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A320" s="24"/>
+      <c r="A320" s="23"/>
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A321" s="24"/>
+      <c r="A321" s="23"/>
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
       <c r="J321" s="5"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A322" s="24"/>
+      <c r="A322" s="23"/>
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
       <c r="J322" s="5"/>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A323" s="24"/>
+      <c r="A323" s="23"/>
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
       <c r="J323" s="5"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A324" s="24"/>
+      <c r="A324" s="23"/>
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
       <c r="J324" s="5"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A325" s="24"/>
+      <c r="A325" s="23"/>
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
       <c r="J325" s="5"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A326" s="24"/>
+      <c r="A326" s="23"/>
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
       <c r="J326" s="5"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A327" s="24"/>
+      <c r="A327" s="23"/>
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
       <c r="J327" s="5"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A328" s="24"/>
+      <c r="A328" s="23"/>
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
       <c r="J328" s="5"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A329" s="24"/>
+      <c r="A329" s="23"/>
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
       <c r="J329" s="5"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A330" s="24"/>
+      <c r="A330" s="23"/>
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
       <c r="J330" s="5"/>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A331" s="24"/>
+      <c r="A331" s="23"/>
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
       <c r="J331" s="5"/>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A332" s="24"/>
+      <c r="A332" s="23"/>
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
       <c r="J332" s="5"/>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A333" s="24"/>
+      <c r="A333" s="23"/>
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
       <c r="J333" s="5"/>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A334" s="24"/>
+      <c r="A334" s="23"/>
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
       <c r="J334" s="5"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A335" s="24"/>
+      <c r="A335" s="23"/>
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
       <c r="J335" s="5"/>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A336" s="24"/>
+      <c r="A336" s="23"/>
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
       <c r="J336" s="5"/>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A337" s="24"/>
+      <c r="A337" s="23"/>
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
       <c r="J337" s="5"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A338" s="24"/>
+      <c r="A338" s="23"/>
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
       <c r="J338" s="5"/>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A339" s="24"/>
+      <c r="A339" s="23"/>
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
       <c r="J339" s="5"/>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A340" s="24"/>
+      <c r="A340" s="23"/>
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
       <c r="J340" s="5"/>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A341" s="24"/>
+      <c r="A341" s="23"/>
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
       <c r="J341" s="5"/>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A342" s="24"/>
+      <c r="A342" s="23"/>
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
       <c r="J342" s="5"/>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A343" s="24"/>
+      <c r="A343" s="23"/>
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
       <c r="J343" s="5"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A344" s="24"/>
+      <c r="A344" s="23"/>
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
       <c r="J344" s="5"/>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A345" s="24"/>
+      <c r="A345" s="23"/>
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
       <c r="J345" s="5"/>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A346" s="24"/>
+      <c r="A346" s="23"/>
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
       <c r="J346" s="5"/>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A347" s="24"/>
+      <c r="A347" s="23"/>
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
       <c r="J347" s="5"/>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A348" s="24"/>
+      <c r="A348" s="23"/>
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
       <c r="J348" s="5"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A349" s="24"/>
+      <c r="A349" s="23"/>
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
       <c r="J349" s="5"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A350" s="24"/>
+      <c r="A350" s="23"/>
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
       <c r="J350" s="5"/>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A351" s="24"/>
+      <c r="A351" s="23"/>
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
       <c r="J351" s="5"/>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A352" s="24"/>
+      <c r="A352" s="23"/>
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
       <c r="J352" s="5"/>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A353" s="24"/>
+      <c r="A353" s="23"/>
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
       <c r="J353" s="5"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A354" s="24"/>
+      <c r="A354" s="23"/>
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
       <c r="J354" s="5"/>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A355" s="24"/>
+      <c r="A355" s="23"/>
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
       <c r="J355" s="5"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A356" s="24"/>
+      <c r="A356" s="23"/>
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
       <c r="J356" s="5"/>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A357" s="24"/>
+      <c r="A357" s="23"/>
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
       <c r="J357" s="5"/>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A358" s="24"/>
+      <c r="A358" s="23"/>
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
       <c r="J358" s="5"/>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A359" s="24"/>
+      <c r="A359" s="23"/>
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
       <c r="J359" s="5"/>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A360" s="24"/>
+      <c r="A360" s="23"/>
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
       <c r="J360" s="5"/>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A361" s="24"/>
+      <c r="A361" s="23"/>
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
       <c r="J361" s="5"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A362" s="24"/>
+      <c r="A362" s="23"/>
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
       <c r="J362" s="5"/>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A363" s="24"/>
+      <c r="A363" s="23"/>
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
       <c r="J363" s="5"/>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A364" s="24"/>
+      <c r="A364" s="23"/>
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
       <c r="J364" s="5"/>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A365" s="24"/>
+      <c r="A365" s="23"/>
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
       <c r="J365" s="5"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A366" s="24"/>
+      <c r="A366" s="23"/>
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
       <c r="J366" s="5"/>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A367" s="24"/>
+      <c r="A367" s="23"/>
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
       <c r="J367" s="5"/>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A368" s="24"/>
+      <c r="A368" s="23"/>
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
       <c r="J368" s="5"/>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A369" s="24"/>
+      <c r="A369" s="23"/>
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
       <c r="J369" s="5"/>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A370" s="24"/>
+      <c r="A370" s="23"/>
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
       <c r="J370" s="5"/>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A371" s="24"/>
+      <c r="A371" s="23"/>
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
       <c r="J371" s="5"/>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A372" s="24"/>
+      <c r="A372" s="23"/>
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
       <c r="J372" s="5"/>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A373" s="24"/>
+      <c r="A373" s="23"/>
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
       <c r="J373" s="5"/>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A374" s="24"/>
+      <c r="A374" s="23"/>
       <c r="H374" s="5"/>
       <c r="I374" s="5"/>
       <c r="J374" s="5"/>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A375" s="24"/>
+      <c r="A375" s="23"/>
       <c r="H375" s="5"/>
       <c r="I375" s="5"/>
       <c r="J375" s="5"/>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A376" s="24"/>
+      <c r="A376" s="23"/>
       <c r="H376" s="5"/>
       <c r="I376" s="5"/>
       <c r="J376" s="5"/>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A377" s="24"/>
+      <c r="A377" s="23"/>
       <c r="H377" s="5"/>
       <c r="I377" s="5"/>
       <c r="J377" s="5"/>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A378" s="24"/>
+      <c r="A378" s="23"/>
       <c r="H378" s="5"/>
       <c r="I378" s="5"/>
       <c r="J378" s="5"/>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A379" s="24"/>
+      <c r="A379" s="23"/>
       <c r="H379" s="5"/>
       <c r="I379" s="5"/>
       <c r="J379" s="5"/>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A380" s="24"/>
+      <c r="A380" s="23"/>
       <c r="H380" s="5"/>
       <c r="I380" s="5"/>
       <c r="J380" s="5"/>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A381" s="24"/>
+      <c r="A381" s="23"/>
       <c r="H381" s="5"/>
       <c r="I381" s="5"/>
       <c r="J381" s="5"/>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A382" s="24"/>
+      <c r="A382" s="23"/>
       <c r="H382" s="5"/>
       <c r="I382" s="5"/>
       <c r="J382" s="5"/>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A383" s="24"/>
+      <c r="A383" s="23"/>
       <c r="H383" s="5"/>
       <c r="I383" s="5"/>
       <c r="J383" s="5"/>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A384" s="24"/>
+      <c r="A384" s="23"/>
       <c r="H384" s="5"/>
       <c r="I384" s="5"/>
       <c r="J384" s="5"/>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A385" s="24"/>
+      <c r="A385" s="23"/>
       <c r="H385" s="5"/>
       <c r="I385" s="5"/>
       <c r="J385" s="5"/>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A386" s="24"/>
+      <c r="A386" s="23"/>
       <c r="H386" s="5"/>
       <c r="I386" s="5"/>
       <c r="J386" s="5"/>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A387" s="24"/>
+      <c r="A387" s="23"/>
       <c r="H387" s="5"/>
       <c r="I387" s="5"/>
       <c r="J387" s="5"/>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A388" s="24"/>
+      <c r="A388" s="23"/>
       <c r="H388" s="5"/>
       <c r="I388" s="5"/>
       <c r="J388" s="5"/>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A389" s="24"/>
+      <c r="A389" s="23"/>
       <c r="H389" s="5"/>
       <c r="I389" s="5"/>
       <c r="J389" s="5"/>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A390" s="24"/>
+      <c r="A390" s="23"/>
       <c r="H390" s="5"/>
       <c r="I390" s="5"/>
       <c r="J390" s="5"/>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A391" s="24"/>
+      <c r="A391" s="23"/>
       <c r="H391" s="5"/>
       <c r="I391" s="5"/>
       <c r="J391" s="5"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A392" s="24"/>
+      <c r="A392" s="23"/>
       <c r="H392" s="5"/>
       <c r="I392" s="5"/>
       <c r="J392" s="5"/>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A393" s="24"/>
+      <c r="A393" s="23"/>
       <c r="H393" s="5"/>
       <c r="I393" s="5"/>
       <c r="J393" s="5"/>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A394" s="24"/>
+      <c r="A394" s="23"/>
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
       <c r="J394" s="5"/>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A395" s="24"/>
+      <c r="A395" s="23"/>
       <c r="H395" s="5"/>
       <c r="I395" s="5"/>
       <c r="J395" s="5"/>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A396" s="24"/>
+      <c r="A396" s="23"/>
       <c r="H396" s="5"/>
       <c r="I396" s="5"/>
       <c r="J396" s="5"/>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A397" s="24"/>
+      <c r="A397" s="23"/>
       <c r="H397" s="5"/>
       <c r="I397" s="5"/>
       <c r="J397" s="5"/>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A398" s="24"/>
+      <c r="A398" s="23"/>
       <c r="H398" s="5"/>
       <c r="I398" s="5"/>
       <c r="J398" s="5"/>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A399" s="24"/>
+      <c r="A399" s="23"/>
       <c r="H399" s="5"/>
       <c r="I399" s="5"/>
       <c r="J399" s="5"/>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A400" s="24"/>
+      <c r="A400" s="23"/>
       <c r="H400" s="5"/>
       <c r="I400" s="5"/>
       <c r="J400" s="5"/>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A401" s="24"/>
+      <c r="A401" s="23"/>
       <c r="H401" s="5"/>
       <c r="I401" s="5"/>
       <c r="J401" s="5"/>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A402" s="24"/>
+      <c r="A402" s="23"/>
       <c r="H402" s="5"/>
       <c r="I402" s="5"/>
       <c r="J402" s="5"/>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A403" s="24"/>
+      <c r="A403" s="23"/>
       <c r="H403" s="5"/>
       <c r="I403" s="5"/>
       <c r="J403" s="5"/>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A404" s="24"/>
+      <c r="A404" s="23"/>
       <c r="H404" s="5"/>
       <c r="I404" s="5"/>
       <c r="J404" s="5"/>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A405" s="24"/>
+      <c r="A405" s="23"/>
       <c r="H405" s="5"/>
       <c r="I405" s="5"/>
       <c r="J405" s="5"/>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A406" s="24"/>
+      <c r="A406" s="23"/>
       <c r="H406" s="5"/>
       <c r="I406" s="5"/>
       <c r="J406" s="5"/>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A407" s="24"/>
+      <c r="A407" s="23"/>
       <c r="H407" s="5"/>
       <c r="I407" s="5"/>
       <c r="J407" s="5"/>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A408" s="24"/>
+      <c r="A408" s="23"/>
       <c r="H408" s="5"/>
       <c r="I408" s="5"/>
       <c r="J408" s="5"/>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A409" s="24"/>
+      <c r="A409" s="23"/>
       <c r="H409" s="5"/>
       <c r="I409" s="5"/>
       <c r="J409" s="5"/>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A410" s="24"/>
+      <c r="A410" s="23"/>
       <c r="H410" s="5"/>
       <c r="I410" s="5"/>
       <c r="J410" s="5"/>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A411" s="24"/>
+      <c r="A411" s="23"/>
       <c r="H411" s="5"/>
       <c r="I411" s="5"/>
       <c r="J411" s="5"/>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A412" s="24"/>
+      <c r="A412" s="23"/>
       <c r="H412" s="5"/>
       <c r="I412" s="5"/>
       <c r="J412" s="5"/>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A413" s="24"/>
+      <c r="A413" s="23"/>
       <c r="H413" s="5"/>
       <c r="I413" s="5"/>
       <c r="J413" s="5"/>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A414" s="24"/>
+      <c r="A414" s="23"/>
       <c r="H414" s="5"/>
       <c r="I414" s="5"/>
       <c r="J414" s="5"/>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A415" s="24"/>
+      <c r="A415" s="23"/>
       <c r="H415" s="5"/>
       <c r="I415" s="5"/>
       <c r="J415" s="5"/>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A416" s="24"/>
+      <c r="A416" s="23"/>
       <c r="H416" s="5"/>
       <c r="I416" s="5"/>
       <c r="J416" s="5"/>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A417" s="24"/>
+      <c r="A417" s="23"/>
       <c r="H417" s="5"/>
       <c r="I417" s="5"/>
       <c r="J417" s="5"/>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A418" s="24"/>
+      <c r="A418" s="23"/>
       <c r="H418" s="5"/>
       <c r="I418" s="5"/>
       <c r="J418" s="5"/>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A419" s="24"/>
+      <c r="A419" s="23"/>
       <c r="H419" s="5"/>
       <c r="I419" s="5"/>
       <c r="J419" s="5"/>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A420" s="24"/>
+      <c r="A420" s="23"/>
       <c r="H420" s="5"/>
       <c r="I420" s="5"/>
       <c r="J420" s="5"/>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A421" s="24"/>
+      <c r="A421" s="23"/>
       <c r="H421" s="5"/>
       <c r="I421" s="5"/>
       <c r="J421" s="5"/>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A422" s="24"/>
+      <c r="A422" s="23"/>
       <c r="H422" s="5"/>
       <c r="I422" s="5"/>
       <c r="J422" s="5"/>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A423" s="24"/>
+      <c r="A423" s="23"/>
       <c r="H423" s="5"/>
       <c r="I423" s="5"/>
       <c r="J423" s="5"/>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A424" s="24"/>
+      <c r="A424" s="23"/>
       <c r="H424" s="5"/>
       <c r="I424" s="5"/>
       <c r="J424" s="5"/>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A425" s="24"/>
+      <c r="A425" s="23"/>
       <c r="H425" s="5"/>
       <c r="I425" s="5"/>
       <c r="J425" s="5"/>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A426" s="24"/>
+      <c r="A426" s="23"/>
       <c r="H426" s="5"/>
       <c r="I426" s="5"/>
       <c r="J426" s="5"/>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A427" s="24"/>
+      <c r="A427" s="23"/>
       <c r="H427" s="5"/>
       <c r="I427" s="5"/>
       <c r="J427" s="5"/>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A428" s="24"/>
+      <c r="A428" s="23"/>
       <c r="H428" s="5"/>
       <c r="I428" s="5"/>
       <c r="J428" s="5"/>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A429" s="24"/>
+      <c r="A429" s="23"/>
       <c r="H429" s="5"/>
       <c r="I429" s="5"/>
       <c r="J429" s="5"/>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A430" s="24"/>
+      <c r="A430" s="23"/>
       <c r="H430" s="5"/>
       <c r="I430" s="5"/>
       <c r="J430" s="5"/>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A431" s="24"/>
+      <c r="A431" s="23"/>
       <c r="H431" s="5"/>
       <c r="I431" s="5"/>
       <c r="J431" s="5"/>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A432" s="24"/>
+      <c r="A432" s="23"/>
       <c r="H432" s="5"/>
       <c r="I432" s="5"/>
       <c r="J432" s="5"/>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A433" s="24"/>
+      <c r="A433" s="23"/>
       <c r="H433" s="5"/>
       <c r="I433" s="5"/>
       <c r="J433" s="5"/>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A434" s="24"/>
+      <c r="A434" s="23"/>
       <c r="H434" s="5"/>
       <c r="I434" s="5"/>
       <c r="J434" s="5"/>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A435" s="24"/>
+      <c r="A435" s="23"/>
       <c r="H435" s="5"/>
       <c r="I435" s="5"/>
       <c r="J435" s="5"/>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A436" s="24"/>
+      <c r="A436" s="23"/>
       <c r="H436" s="5"/>
       <c r="I436" s="5"/>
       <c r="J436" s="5"/>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A437" s="24"/>
+      <c r="A437" s="23"/>
       <c r="H437" s="5"/>
       <c r="I437" s="5"/>
       <c r="J437" s="5"/>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A438" s="24"/>
+      <c r="A438" s="23"/>
       <c r="H438" s="5"/>
       <c r="I438" s="5"/>
       <c r="J438" s="5"/>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A439" s="24"/>
+      <c r="A439" s="23"/>
       <c r="H439" s="5"/>
       <c r="I439" s="5"/>
       <c r="J439" s="5"/>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A440" s="24"/>
+      <c r="A440" s="23"/>
       <c r="H440" s="5"/>
       <c r="I440" s="5"/>
       <c r="J440" s="5"/>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A441" s="24"/>
+      <c r="A441" s="23"/>
       <c r="H441" s="5"/>
       <c r="I441" s="5"/>
       <c r="J441" s="5"/>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A442" s="24"/>
+      <c r="A442" s="23"/>
       <c r="H442" s="5"/>
       <c r="I442" s="5"/>
       <c r="J442" s="5"/>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A443" s="24"/>
+      <c r="A443" s="23"/>
       <c r="H443" s="5"/>
       <c r="I443" s="5"/>
       <c r="J443" s="5"/>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A444" s="24"/>
+      <c r="A444" s="23"/>
       <c r="H444" s="5"/>
       <c r="I444" s="5"/>
       <c r="J444" s="5"/>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A445" s="24"/>
+      <c r="A445" s="23"/>
       <c r="H445" s="5"/>
       <c r="I445" s="5"/>
       <c r="J445" s="5"/>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A446" s="24"/>
+      <c r="A446" s="23"/>
       <c r="H446" s="5"/>
       <c r="I446" s="5"/>
       <c r="J446" s="5"/>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A447" s="24"/>
+      <c r="A447" s="23"/>
       <c r="H447" s="5"/>
       <c r="I447" s="5"/>
       <c r="J447" s="5"/>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A448" s="24"/>
+      <c r="A448" s="23"/>
       <c r="H448" s="5"/>
       <c r="I448" s="5"/>
       <c r="J448" s="5"/>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A449" s="24"/>
+      <c r="A449" s="23"/>
       <c r="H449" s="5"/>
       <c r="I449" s="5"/>
       <c r="J449" s="5"/>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A450" s="24"/>
+      <c r="A450" s="23"/>
       <c r="H450" s="5"/>
       <c r="I450" s="5"/>
       <c r="J450" s="5"/>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A451" s="24"/>
+      <c r="A451" s="23"/>
       <c r="H451" s="5"/>
       <c r="I451" s="5"/>
       <c r="J451" s="5"/>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A452" s="24"/>
+      <c r="A452" s="23"/>
       <c r="H452" s="5"/>
       <c r="I452" s="5"/>
       <c r="J452" s="5"/>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A453" s="24"/>
+      <c r="A453" s="23"/>
       <c r="H453" s="5"/>
       <c r="I453" s="5"/>
       <c r="J453" s="5"/>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A454" s="24"/>
+      <c r="A454" s="23"/>
       <c r="H454" s="5"/>
       <c r="I454" s="5"/>
       <c r="J454" s="5"/>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A455" s="24"/>
+      <c r="A455" s="23"/>
       <c r="H455" s="5"/>
       <c r="I455" s="5"/>
       <c r="J455" s="5"/>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A456" s="24"/>
+      <c r="A456" s="23"/>
       <c r="H456" s="5"/>
       <c r="I456" s="5"/>
       <c r="J456" s="5"/>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A457" s="24"/>
+      <c r="A457" s="23"/>
       <c r="H457" s="5"/>
       <c r="I457" s="5"/>
       <c r="J457" s="5"/>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A458" s="24"/>
+      <c r="A458" s="23"/>
       <c r="H458" s="5"/>
       <c r="I458" s="5"/>
       <c r="J458" s="5"/>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A459" s="24"/>
+      <c r="A459" s="23"/>
       <c r="H459" s="5"/>
       <c r="I459" s="5"/>
       <c r="J459" s="5"/>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A460" s="24"/>
+      <c r="A460" s="23"/>
       <c r="H460" s="5"/>
       <c r="I460" s="5"/>
       <c r="J460" s="5"/>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A461" s="24"/>
+      <c r="A461" s="23"/>
       <c r="H461" s="5"/>
       <c r="I461" s="5"/>
       <c r="J461" s="5"/>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A462" s="24"/>
+      <c r="A462" s="23"/>
       <c r="H462" s="5"/>
       <c r="I462" s="5"/>
       <c r="J462" s="5"/>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A463" s="24"/>
+      <c r="A463" s="23"/>
       <c r="H463" s="5"/>
       <c r="I463" s="5"/>
       <c r="J463" s="5"/>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A464" s="24"/>
+      <c r="A464" s="23"/>
       <c r="H464" s="5"/>
       <c r="I464" s="5"/>
       <c r="J464" s="5"/>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A465" s="24"/>
+      <c r="A465" s="23"/>
       <c r="H465" s="5"/>
       <c r="I465" s="5"/>
       <c r="J465" s="5"/>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A466" s="24"/>
+      <c r="A466" s="23"/>
       <c r="H466" s="5"/>
       <c r="I466" s="5"/>
       <c r="J466" s="5"/>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A467" s="24"/>
+      <c r="A467" s="23"/>
       <c r="H467" s="5"/>
       <c r="I467" s="5"/>
       <c r="J467" s="5"/>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A468" s="24"/>
+      <c r="A468" s="23"/>
       <c r="H468" s="5"/>
       <c r="I468" s="5"/>
       <c r="J468" s="5"/>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A469" s="24"/>
+      <c r="A469" s="23"/>
       <c r="H469" s="5"/>
       <c r="I469" s="5"/>
       <c r="J469" s="5"/>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A470" s="24"/>
+      <c r="A470" s="23"/>
       <c r="H470" s="5"/>
       <c r="I470" s="5"/>
       <c r="J470" s="5"/>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A471" s="24"/>
+      <c r="A471" s="23"/>
       <c r="H471" s="5"/>
       <c r="I471" s="5"/>
       <c r="J471" s="5"/>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A472" s="24"/>
+      <c r="A472" s="23"/>
       <c r="H472" s="5"/>
       <c r="I472" s="5"/>
       <c r="J472" s="5"/>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A473" s="24"/>
+      <c r="A473" s="23"/>
       <c r="H473" s="5"/>
       <c r="I473" s="5"/>
       <c r="J473" s="5"/>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A474" s="24"/>
+      <c r="A474" s="23"/>
       <c r="H474" s="5"/>
       <c r="I474" s="5"/>
       <c r="J474" s="5"/>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A475" s="24"/>
+      <c r="A475" s="23"/>
       <c r="H475" s="5"/>
       <c r="I475" s="5"/>
       <c r="J475" s="5"/>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A476" s="24"/>
+      <c r="A476" s="23"/>
       <c r="H476" s="5"/>
       <c r="I476" s="5"/>
       <c r="J476" s="5"/>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A477" s="24"/>
+      <c r="A477" s="23"/>
       <c r="H477" s="5"/>
       <c r="I477" s="5"/>
       <c r="J477" s="5"/>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A478" s="24"/>
+      <c r="A478" s="23"/>
       <c r="H478" s="5"/>
       <c r="I478" s="5"/>
       <c r="J478" s="5"/>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A479" s="24"/>
+      <c r="A479" s="23"/>
       <c r="H479" s="5"/>
       <c r="I479" s="5"/>
       <c r="J479" s="5"/>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A480" s="24"/>
+      <c r="A480" s="23"/>
       <c r="H480" s="5"/>
       <c r="I480" s="5"/>
       <c r="J480" s="5"/>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A481" s="24"/>
+      <c r="A481" s="23"/>
       <c r="H481" s="5"/>
       <c r="I481" s="5"/>
       <c r="J481" s="5"/>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A482" s="24"/>
+      <c r="A482" s="23"/>
       <c r="H482" s="5"/>
       <c r="I482" s="5"/>
       <c r="J482" s="5"/>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A483" s="24"/>
+      <c r="A483" s="23"/>
       <c r="H483" s="5"/>
       <c r="I483" s="5"/>
       <c r="J483" s="5"/>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A484" s="24"/>
+      <c r="A484" s="23"/>
       <c r="H484" s="5"/>
       <c r="I484" s="5"/>
       <c r="J484" s="5"/>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A485" s="24"/>
+      <c r="A485" s="23"/>
       <c r="H485" s="5"/>
       <c r="I485" s="5"/>
       <c r="J485" s="5"/>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A486" s="24"/>
+      <c r="A486" s="23"/>
       <c r="H486" s="5"/>
       <c r="I486" s="5"/>
       <c r="J486" s="5"/>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A487" s="24"/>
+      <c r="A487" s="23"/>
       <c r="H487" s="5"/>
       <c r="I487" s="5"/>
       <c r="J487" s="5"/>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A488" s="24"/>
+      <c r="A488" s="23"/>
       <c r="H488" s="5"/>
       <c r="I488" s="5"/>
       <c r="J488" s="5"/>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A489" s="24"/>
+      <c r="A489" s="23"/>
       <c r="H489" s="5"/>
       <c r="I489" s="5"/>
       <c r="J489" s="5"/>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A490" s="24"/>
+      <c r="A490" s="23"/>
       <c r="H490" s="5"/>
       <c r="I490" s="5"/>
       <c r="J490" s="5"/>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A491" s="24"/>
+      <c r="A491" s="23"/>
       <c r="H491" s="5"/>
       <c r="I491" s="5"/>
       <c r="J491" s="5"/>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A492" s="24"/>
+      <c r="A492" s="23"/>
       <c r="H492" s="5"/>
       <c r="I492" s="5"/>
       <c r="J492" s="5"/>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A493" s="24"/>
+      <c r="A493" s="23"/>
       <c r="H493" s="5"/>
       <c r="I493" s="5"/>
       <c r="J493" s="5"/>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A494" s="24"/>
+      <c r="A494" s="23"/>
       <c r="H494" s="5"/>
       <c r="I494" s="5"/>
       <c r="J494" s="5"/>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A495" s="24"/>
+      <c r="A495" s="23"/>
       <c r="H495" s="5"/>
       <c r="I495" s="5"/>
       <c r="J495" s="5"/>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A496" s="24"/>
+      <c r="A496" s="23"/>
       <c r="H496" s="5"/>
       <c r="I496" s="5"/>
       <c r="J496" s="5"/>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A497" s="24"/>
+      <c r="A497" s="23"/>
       <c r="H497" s="5"/>
       <c r="I497" s="5"/>
       <c r="J497" s="5"/>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A498" s="24"/>
+      <c r="A498" s="23"/>
       <c r="H498" s="5"/>
       <c r="I498" s="5"/>
       <c r="J498" s="5"/>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A499" s="24"/>
+      <c r="A499" s="23"/>
       <c r="H499" s="5"/>
       <c r="I499" s="5"/>
       <c r="J499" s="5"/>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A500" s="24"/>
+      <c r="A500" s="23"/>
       <c r="H500" s="5"/>
       <c r="I500" s="5"/>
       <c r="J500" s="5"/>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A501" s="24"/>
+      <c r="A501" s="23"/>
       <c r="H501" s="5"/>
       <c r="I501" s="5"/>
       <c r="J501" s="5"/>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A502" s="24"/>
+      <c r="A502" s="23"/>
       <c r="H502" s="5"/>
       <c r="I502" s="5"/>
       <c r="J502" s="5"/>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A503" s="24"/>
+      <c r="A503" s="23"/>
       <c r="H503" s="5"/>
       <c r="I503" s="5"/>
       <c r="J503" s="5"/>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A504" s="24"/>
+      <c r="A504" s="23"/>
       <c r="H504" s="5"/>
       <c r="I504" s="5"/>
       <c r="J504" s="5"/>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A505" s="24"/>
+      <c r="A505" s="23"/>
       <c r="H505" s="5"/>
       <c r="I505" s="5"/>
       <c r="J505" s="5"/>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A506" s="24"/>
+      <c r="A506" s="23"/>
       <c r="H506" s="5"/>
       <c r="I506" s="5"/>
       <c r="J506" s="5"/>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A507" s="24"/>
+      <c r="A507" s="23"/>
       <c r="H507" s="5"/>
       <c r="I507" s="5"/>
       <c r="J507" s="5"/>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A508" s="24"/>
+      <c r="A508" s="23"/>
       <c r="H508" s="5"/>
       <c r="I508" s="5"/>
       <c r="J508" s="5"/>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A509" s="24"/>
+      <c r="A509" s="23"/>
       <c r="H509" s="5"/>
       <c r="I509" s="5"/>
       <c r="J509" s="5"/>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A510" s="24"/>
+      <c r="A510" s="23"/>
       <c r="H510" s="5"/>
       <c r="I510" s="5"/>
       <c r="J510" s="5"/>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A511" s="24"/>
+      <c r="A511" s="23"/>
       <c r="H511" s="5"/>
       <c r="I511" s="5"/>
       <c r="J511" s="5"/>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A512" s="24"/>
+      <c r="A512" s="23"/>
       <c r="H512" s="5"/>
       <c r="I512" s="5"/>
       <c r="J512" s="5"/>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A513" s="24"/>
+      <c r="A513" s="23"/>
       <c r="H513" s="5"/>
       <c r="I513" s="5"/>
       <c r="J513" s="5"/>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A514" s="24"/>
+      <c r="A514" s="23"/>
       <c r="H514" s="5"/>
       <c r="I514" s="5"/>
       <c r="J514" s="5"/>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A515" s="24"/>
+      <c r="A515" s="23"/>
       <c r="H515" s="5"/>
       <c r="I515" s="5"/>
       <c r="J515" s="5"/>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A516" s="24"/>
+      <c r="A516" s="23"/>
       <c r="H516" s="5"/>
       <c r="I516" s="5"/>
       <c r="J516" s="5"/>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A517" s="24"/>
+      <c r="A517" s="23"/>
       <c r="H517" s="5"/>
       <c r="I517" s="5"/>
       <c r="J517" s="5"/>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A518" s="24"/>
+      <c r="A518" s="23"/>
       <c r="H518" s="5"/>
       <c r="I518" s="5"/>
       <c r="J518" s="5"/>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A519" s="24"/>
+      <c r="A519" s="23"/>
       <c r="H519" s="5"/>
       <c r="I519" s="5"/>
       <c r="J519" s="5"/>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A520" s="24"/>
+      <c r="A520" s="23"/>
       <c r="H520" s="5"/>
       <c r="I520" s="5"/>
       <c r="J520" s="5"/>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A521" s="24"/>
+      <c r="A521" s="23"/>
       <c r="H521" s="5"/>
       <c r="I521" s="5"/>
       <c r="J521" s="5"/>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A522" s="24"/>
+      <c r="A522" s="23"/>
       <c r="H522" s="5"/>
       <c r="I522" s="5"/>
       <c r="J522" s="5"/>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A523" s="24"/>
+      <c r="A523" s="23"/>
       <c r="H523" s="5"/>
       <c r="I523" s="5"/>
       <c r="J523" s="5"/>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A524" s="24"/>
+      <c r="A524" s="23"/>
       <c r="H524" s="5"/>
       <c r="I524" s="5"/>
       <c r="J524" s="5"/>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A525" s="24"/>
+      <c r="A525" s="23"/>
       <c r="H525" s="5"/>
       <c r="I525" s="5"/>
       <c r="J525" s="5"/>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A526" s="24"/>
+      <c r="A526" s="23"/>
       <c r="H526" s="5"/>
       <c r="I526" s="5"/>
       <c r="J526" s="5"/>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A527" s="24"/>
+      <c r="A527" s="23"/>
       <c r="H527" s="5"/>
       <c r="I527" s="5"/>
       <c r="J527" s="5"/>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A528" s="24"/>
+      <c r="A528" s="23"/>
       <c r="H528" s="5"/>
       <c r="I528" s="5"/>
       <c r="J528" s="5"/>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A529" s="24"/>
+      <c r="A529" s="23"/>
       <c r="H529" s="5"/>
       <c r="I529" s="5"/>
       <c r="J529" s="5"/>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A530" s="24"/>
+      <c r="A530" s="23"/>
       <c r="H530" s="5"/>
       <c r="I530" s="5"/>
       <c r="J530" s="5"/>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A531" s="24"/>
+      <c r="A531" s="23"/>
       <c r="H531" s="5"/>
       <c r="I531" s="5"/>
       <c r="J531" s="5"/>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A532" s="24"/>
+      <c r="A532" s="23"/>
       <c r="H532" s="5"/>
       <c r="I532" s="5"/>
       <c r="J532" s="5"/>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A533" s="24"/>
+      <c r="A533" s="23"/>
       <c r="H533" s="5"/>
       <c r="I533" s="5"/>
       <c r="J533" s="5"/>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A534" s="24"/>
+      <c r="A534" s="23"/>
       <c r="H534" s="5"/>
       <c r="I534" s="5"/>
       <c r="J534" s="5"/>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A535" s="24"/>
+      <c r="A535" s="23"/>
       <c r="H535" s="5"/>
       <c r="I535" s="5"/>
       <c r="J535" s="5"/>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A536" s="24"/>
+      <c r="A536" s="23"/>
       <c r="H536" s="5"/>
       <c r="I536" s="5"/>
       <c r="J536" s="5"/>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A537" s="24"/>
+      <c r="A537" s="23"/>
       <c r="H537" s="5"/>
       <c r="I537" s="5"/>
       <c r="J537" s="5"/>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A538" s="24"/>
+      <c r="A538" s="23"/>
       <c r="H538" s="5"/>
       <c r="I538" s="5"/>
       <c r="J538" s="5"/>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A539" s="24"/>
+      <c r="A539" s="23"/>
       <c r="H539" s="5"/>
       <c r="I539" s="5"/>
       <c r="J539" s="5"/>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A540" s="24"/>
+      <c r="A540" s="23"/>
       <c r="H540" s="5"/>
       <c r="I540" s="5"/>
       <c r="J540" s="5"/>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A541" s="24"/>
+      <c r="A541" s="23"/>
       <c r="H541" s="5"/>
       <c r="I541" s="5"/>
       <c r="J541" s="5"/>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A542" s="24"/>
+      <c r="A542" s="23"/>
       <c r="H542" s="5"/>
       <c r="I542" s="5"/>
       <c r="J542" s="5"/>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A543" s="24"/>
+      <c r="A543" s="23"/>
       <c r="H543" s="5"/>
       <c r="I543" s="5"/>
       <c r="J543" s="5"/>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A544" s="24"/>
+      <c r="A544" s="23"/>
       <c r="H544" s="5"/>
       <c r="I544" s="5"/>
       <c r="J544" s="5"/>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A545" s="24"/>
+      <c r="A545" s="23"/>
       <c r="H545" s="5"/>
       <c r="I545" s="5"/>
       <c r="J545" s="5"/>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A546" s="24"/>
+      <c r="A546" s="23"/>
       <c r="H546" s="5"/>
       <c r="I546" s="5"/>
       <c r="J546" s="5"/>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A547" s="24"/>
+      <c r="A547" s="23"/>
       <c r="H547" s="5"/>
       <c r="I547" s="5"/>
       <c r="J547" s="5"/>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A548" s="24"/>
+      <c r="A548" s="23"/>
       <c r="H548" s="5"/>
       <c r="I548" s="5"/>
       <c r="J548" s="5"/>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A549" s="24"/>
+      <c r="A549" s="23"/>
       <c r="H549" s="5"/>
       <c r="I549" s="5"/>
       <c r="J549" s="5"/>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A550" s="24"/>
+      <c r="A550" s="23"/>
       <c r="H550" s="5"/>
       <c r="I550" s="5"/>
       <c r="J550" s="5"/>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A551" s="24"/>
+      <c r="A551" s="23"/>
       <c r="H551" s="5"/>
       <c r="I551" s="5"/>
       <c r="J551" s="5"/>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A552" s="24"/>
+      <c r="A552" s="23"/>
       <c r="H552" s="5"/>
       <c r="I552" s="5"/>
       <c r="J552" s="5"/>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A553" s="24"/>
+      <c r="A553" s="23"/>
       <c r="H553" s="5"/>
       <c r="I553" s="5"/>
       <c r="J553" s="5"/>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A554" s="24"/>
+      <c r="A554" s="23"/>
       <c r="H554" s="5"/>
       <c r="I554" s="5"/>
       <c r="J554" s="5"/>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A555" s="24"/>
+      <c r="A555" s="23"/>
       <c r="H555" s="5"/>
       <c r="I555" s="5"/>
       <c r="J555" s="5"/>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A556" s="24"/>
+      <c r="A556" s="23"/>
       <c r="H556" s="5"/>
       <c r="I556" s="5"/>
       <c r="J556" s="5"/>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A557" s="24"/>
+      <c r="A557" s="23"/>
       <c r="H557" s="5"/>
       <c r="I557" s="5"/>
       <c r="J557" s="5"/>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A558" s="24"/>
+      <c r="A558" s="23"/>
       <c r="H558" s="5"/>
       <c r="I558" s="5"/>
       <c r="J558" s="5"/>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A559" s="24"/>
+      <c r="A559" s="23"/>
       <c r="H559" s="5"/>
       <c r="I559" s="5"/>
       <c r="J559" s="5"/>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A560" s="24"/>
+      <c r="A560" s="23"/>
       <c r="H560" s="5"/>
       <c r="I560" s="5"/>
       <c r="J560" s="5"/>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A561" s="24"/>
+      <c r="A561" s="23"/>
       <c r="H561" s="5"/>
       <c r="I561" s="5"/>
       <c r="J561" s="5"/>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A562" s="24"/>
+      <c r="A562" s="23"/>
       <c r="H562" s="5"/>
       <c r="I562" s="5"/>
       <c r="J562" s="5"/>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A563" s="24"/>
+      <c r="A563" s="23"/>
       <c r="H563" s="5"/>
       <c r="I563" s="5"/>
       <c r="J563" s="5"/>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A564" s="24"/>
+      <c r="A564" s="23"/>
       <c r="H564" s="5"/>
       <c r="I564" s="5"/>
       <c r="J564" s="5"/>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A565" s="24"/>
+      <c r="A565" s="23"/>
       <c r="H565" s="5"/>
       <c r="I565" s="5"/>
       <c r="J565" s="5"/>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A566" s="24"/>
+      <c r="A566" s="23"/>
       <c r="H566" s="5"/>
       <c r="I566" s="5"/>
       <c r="J566" s="5"/>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A567" s="24"/>
+      <c r="A567" s="23"/>
       <c r="H567" s="5"/>
       <c r="I567" s="5"/>
       <c r="J567" s="5"/>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A568" s="24"/>
+      <c r="A568" s="23"/>
       <c r="H568" s="5"/>
       <c r="I568" s="5"/>
       <c r="J568" s="5"/>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A569" s="24"/>
+      <c r="A569" s="23"/>
       <c r="H569" s="5"/>
       <c r="I569" s="5"/>
       <c r="J569" s="5"/>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A570" s="24"/>
+      <c r="A570" s="23"/>
       <c r="H570" s="5"/>
       <c r="I570" s="5"/>
       <c r="J570" s="5"/>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A571" s="24"/>
+      <c r="A571" s="23"/>
       <c r="H571" s="5"/>
       <c r="I571" s="5"/>
       <c r="J571" s="5"/>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A572" s="24"/>
+      <c r="A572" s="23"/>
       <c r="H572" s="5"/>
       <c r="I572" s="5"/>
       <c r="J572" s="5"/>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A573" s="24"/>
+      <c r="A573" s="23"/>
       <c r="H573" s="5"/>
       <c r="I573" s="5"/>
       <c r="J573" s="5"/>
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A574" s="24"/>
+      <c r="A574" s="23"/>
       <c r="H574" s="5"/>
       <c r="I574" s="5"/>
       <c r="J574" s="5"/>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A575" s="24"/>
+      <c r="A575" s="23"/>
       <c r="H575" s="5"/>
       <c r="I575" s="5"/>
       <c r="J575" s="5"/>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A576" s="24"/>
+      <c r="A576" s="23"/>
       <c r="H576" s="5"/>
       <c r="I576" s="5"/>
       <c r="J576" s="5"/>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A577" s="24"/>
+      <c r="A577" s="23"/>
       <c r="H577" s="5"/>
       <c r="I577" s="5"/>
       <c r="J577" s="5"/>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A578" s="24"/>
+      <c r="A578" s="23"/>
       <c r="H578" s="5"/>
       <c r="I578" s="5"/>
       <c r="J578" s="5"/>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A579" s="24"/>
+      <c r="A579" s="23"/>
       <c r="H579" s="5"/>
       <c r="I579" s="5"/>
       <c r="J579" s="5"/>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A580" s="24"/>
+      <c r="A580" s="23"/>
       <c r="H580" s="5"/>
       <c r="I580" s="5"/>
       <c r="J580" s="5"/>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A581" s="24"/>
+      <c r="A581" s="23"/>
       <c r="H581" s="5"/>
       <c r="I581" s="5"/>
       <c r="J581" s="5"/>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A582" s="24"/>
+      <c r="A582" s="23"/>
       <c r="H582" s="5"/>
       <c r="I582" s="5"/>
       <c r="J582" s="5"/>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A583" s="24"/>
+      <c r="A583" s="23"/>
       <c r="H583" s="5"/>
       <c r="I583" s="5"/>
       <c r="J583" s="5"/>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A584" s="24"/>
+      <c r="A584" s="23"/>
       <c r="H584" s="5"/>
       <c r="I584" s="5"/>
       <c r="J584" s="5"/>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A585" s="24"/>
+      <c r="A585" s="23"/>
       <c r="H585" s="5"/>
       <c r="I585" s="5"/>
       <c r="J585" s="5"/>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A586" s="24"/>
+      <c r="A586" s="23"/>
       <c r="H586" s="5"/>
       <c r="I586" s="5"/>
       <c r="J586" s="5"/>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A587" s="24"/>
+      <c r="A587" s="23"/>
       <c r="H587" s="5"/>
       <c r="I587" s="5"/>
       <c r="J587" s="5"/>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A588" s="24"/>
+      <c r="A588" s="23"/>
       <c r="H588" s="5"/>
       <c r="I588" s="5"/>
       <c r="J588" s="5"/>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A589" s="24"/>
+      <c r="A589" s="23"/>
       <c r="H589" s="5"/>
       <c r="I589" s="5"/>
       <c r="J589" s="5"/>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A590" s="24"/>
+      <c r="A590" s="23"/>
       <c r="H590" s="5"/>
       <c r="I590" s="5"/>
       <c r="J590" s="5"/>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A591" s="24"/>
+      <c r="A591" s="23"/>
       <c r="H591" s="5"/>
       <c r="I591" s="5"/>
       <c r="J591" s="5"/>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A592" s="24"/>
+      <c r="A592" s="23"/>
       <c r="H592" s="5"/>
       <c r="I592" s="5"/>
       <c r="J592" s="5"/>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A593" s="24"/>
+      <c r="A593" s="23"/>
       <c r="H593" s="5"/>
       <c r="I593" s="5"/>
       <c r="J593" s="5"/>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A594" s="24"/>
+      <c r="A594" s="23"/>
       <c r="H594" s="5"/>
       <c r="I594" s="5"/>
       <c r="J594" s="5"/>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A595" s="24"/>
+      <c r="A595" s="23"/>
       <c r="H595" s="5"/>
       <c r="I595" s="5"/>
       <c r="J595" s="5"/>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A596" s="24"/>
+      <c r="A596" s="23"/>
       <c r="H596" s="5"/>
       <c r="I596" s="5"/>
       <c r="J596" s="5"/>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A597" s="24"/>
+      <c r="A597" s="23"/>
       <c r="H597" s="5"/>
       <c r="I597" s="5"/>
       <c r="J597" s="5"/>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A598" s="24"/>
+      <c r="A598" s="23"/>
       <c r="H598" s="5"/>
       <c r="I598" s="5"/>
       <c r="J598" s="5"/>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A599" s="24"/>
+      <c r="A599" s="23"/>
       <c r="H599" s="5"/>
       <c r="I599" s="5"/>
       <c r="J599" s="5"/>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A600" s="24"/>
+      <c r="A600" s="23"/>
       <c r="H600" s="5"/>
       <c r="I600" s="5"/>
       <c r="J600" s="5"/>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A601" s="24"/>
+      <c r="A601" s="23"/>
       <c r="H601" s="5"/>
       <c r="I601" s="5"/>
       <c r="J601" s="5"/>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A602" s="24"/>
+      <c r="A602" s="23"/>
       <c r="H602" s="5"/>
       <c r="I602" s="5"/>
       <c r="J602" s="5"/>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A603" s="24"/>
+      <c r="A603" s="23"/>
       <c r="H603" s="5"/>
       <c r="I603" s="5"/>
       <c r="J603" s="5"/>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A604" s="24"/>
+      <c r="A604" s="23"/>
       <c r="H604" s="5"/>
       <c r="I604" s="5"/>
       <c r="J604" s="5"/>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A605" s="24"/>
+      <c r="A605" s="23"/>
       <c r="H605" s="5"/>
       <c r="I605" s="5"/>
       <c r="J605" s="5"/>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A606" s="24"/>
+      <c r="A606" s="23"/>
       <c r="H606" s="5"/>
       <c r="I606" s="5"/>
       <c r="J606" s="5"/>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A607" s="24"/>
+      <c r="A607" s="23"/>
       <c r="H607" s="5"/>
       <c r="I607" s="5"/>
       <c r="J607" s="5"/>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A608" s="24"/>
+      <c r="A608" s="23"/>
       <c r="H608" s="5"/>
       <c r="I608" s="5"/>
       <c r="J608" s="5"/>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A609" s="24"/>
+      <c r="A609" s="23"/>
       <c r="H609" s="5"/>
       <c r="I609" s="5"/>
       <c r="J609" s="5"/>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A610" s="24"/>
+      <c r="A610" s="23"/>
       <c r="H610" s="5"/>
       <c r="I610" s="5"/>
       <c r="J610" s="5"/>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A611" s="24"/>
+      <c r="A611" s="23"/>
       <c r="H611" s="5"/>
       <c r="I611" s="5"/>
       <c r="J611" s="5"/>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A612" s="24"/>
+      <c r="A612" s="23"/>
       <c r="H612" s="5"/>
       <c r="I612" s="5"/>
       <c r="J612" s="5"/>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A613" s="24"/>
+      <c r="A613" s="23"/>
       <c r="H613" s="5"/>
       <c r="I613" s="5"/>
       <c r="J613" s="5"/>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A614" s="24"/>
+      <c r="A614" s="23"/>
       <c r="H614" s="5"/>
       <c r="I614" s="5"/>
       <c r="J614" s="5"/>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A615" s="24"/>
+      <c r="A615" s="23"/>
       <c r="H615" s="5"/>
       <c r="I615" s="5"/>
       <c r="J615" s="5"/>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A616" s="24"/>
+      <c r="A616" s="23"/>
       <c r="H616" s="5"/>
       <c r="I616" s="5"/>
       <c r="J616" s="5"/>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A617" s="24"/>
+      <c r="A617" s="23"/>
       <c r="H617" s="5"/>
       <c r="I617" s="5"/>
       <c r="J617" s="5"/>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A618" s="24"/>
+      <c r="A618" s="23"/>
       <c r="H618" s="5"/>
       <c r="I618" s="5"/>
       <c r="J618" s="5"/>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A619" s="24"/>
+      <c r="A619" s="23"/>
       <c r="H619" s="5"/>
       <c r="I619" s="5"/>
       <c r="J619" s="5"/>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A620" s="24"/>
+      <c r="A620" s="23"/>
       <c r="H620" s="5"/>
       <c r="I620" s="5"/>
       <c r="J620" s="5"/>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A621" s="24"/>
+      <c r="A621" s="23"/>
       <c r="H621" s="5"/>
       <c r="I621" s="5"/>
       <c r="J621" s="5"/>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A622" s="24"/>
+      <c r="A622" s="23"/>
       <c r="H622" s="5"/>
       <c r="I622" s="5"/>
       <c r="J622" s="5"/>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A623" s="24"/>
+      <c r="A623" s="23"/>
       <c r="H623" s="5"/>
       <c r="I623" s="5"/>
       <c r="J623" s="5"/>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A624" s="24"/>
+      <c r="A624" s="23"/>
       <c r="H624" s="5"/>
       <c r="I624" s="5"/>
       <c r="J624" s="5"/>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A625" s="24"/>
+      <c r="A625" s="23"/>
       <c r="H625" s="5"/>
       <c r="I625" s="5"/>
       <c r="J625" s="5"/>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A626" s="24"/>
+      <c r="A626" s="23"/>
       <c r="H626" s="5"/>
       <c r="I626" s="5"/>
       <c r="J626" s="5"/>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A627" s="24"/>
+      <c r="A627" s="23"/>
       <c r="H627" s="5"/>
       <c r="I627" s="5"/>
       <c r="J627" s="5"/>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A628" s="24"/>
+      <c r="A628" s="23"/>
       <c r="H628" s="5"/>
       <c r="I628" s="5"/>
       <c r="J628" s="5"/>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A629" s="24"/>
+      <c r="A629" s="23"/>
       <c r="H629" s="5"/>
       <c r="I629" s="5"/>
       <c r="J629" s="5"/>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A630" s="24"/>
+      <c r="A630" s="23"/>
       <c r="H630" s="5"/>
       <c r="I630" s="5"/>
       <c r="J630" s="5"/>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A631" s="24"/>
+      <c r="A631" s="23"/>
       <c r="H631" s="5"/>
       <c r="I631" s="5"/>
       <c r="J631" s="5"/>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A632" s="24"/>
+      <c r="A632" s="23"/>
       <c r="H632" s="5"/>
       <c r="I632" s="5"/>
       <c r="J632" s="5"/>
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A633" s="24"/>
+      <c r="A633" s="23"/>
       <c r="H633" s="5"/>
       <c r="I633" s="5"/>
       <c r="J633" s="5"/>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A634" s="24"/>
+      <c r="A634" s="23"/>
       <c r="H634" s="5"/>
       <c r="I634" s="5"/>
       <c r="J634" s="5"/>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A635" s="24"/>
+      <c r="A635" s="23"/>
       <c r="H635" s="5"/>
       <c r="I635" s="5"/>
       <c r="J635" s="5"/>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A636" s="24"/>
+      <c r="A636" s="23"/>
       <c r="H636" s="5"/>
       <c r="I636" s="5"/>
       <c r="J636" s="5"/>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A637" s="24"/>
+      <c r="A637" s="23"/>
       <c r="H637" s="5"/>
       <c r="I637" s="5"/>
       <c r="J637" s="5"/>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A638" s="24"/>
+      <c r="A638" s="23"/>
       <c r="H638" s="5"/>
       <c r="I638" s="5"/>
       <c r="J638" s="5"/>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A639" s="24"/>
+      <c r="A639" s="23"/>
       <c r="H639" s="5"/>
       <c r="I639" s="5"/>
       <c r="J639" s="5"/>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A640" s="24"/>
+      <c r="A640" s="23"/>
       <c r="H640" s="5"/>
       <c r="I640" s="5"/>
       <c r="J640" s="5"/>
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A641" s="24"/>
+      <c r="A641" s="23"/>
       <c r="H641" s="5"/>
       <c r="I641" s="5"/>
       <c r="J641" s="5"/>
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A642" s="24"/>
+      <c r="A642" s="23"/>
       <c r="H642" s="5"/>
       <c r="I642" s="5"/>
       <c r="J642" s="5"/>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A643" s="24"/>
+      <c r="A643" s="23"/>
       <c r="H643" s="5"/>
       <c r="I643" s="5"/>
       <c r="J643" s="5"/>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A644" s="24"/>
+      <c r="A644" s="23"/>
       <c r="H644" s="5"/>
       <c r="I644" s="5"/>
       <c r="J644" s="5"/>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A645" s="24"/>
+      <c r="A645" s="23"/>
       <c r="H645" s="5"/>
       <c r="I645" s="5"/>
       <c r="J645" s="5"/>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A646" s="24"/>
+      <c r="A646" s="23"/>
       <c r="H646" s="5"/>
       <c r="I646" s="5"/>
       <c r="J646" s="5"/>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A647" s="24"/>
+      <c r="A647" s="23"/>
       <c r="H647" s="5"/>
       <c r="I647" s="5"/>
       <c r="J647" s="5"/>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A648" s="24"/>
+      <c r="A648" s="23"/>
       <c r="H648" s="5"/>
       <c r="I648" s="5"/>
       <c r="J648" s="5"/>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A649" s="24"/>
+      <c r="A649" s="23"/>
       <c r="H649" s="5"/>
       <c r="I649" s="5"/>
       <c r="J649" s="5"/>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A650" s="24"/>
+      <c r="A650" s="23"/>
       <c r="H650" s="5"/>
       <c r="I650" s="5"/>
       <c r="J650" s="5"/>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A651" s="24"/>
+      <c r="A651" s="23"/>
       <c r="H651" s="5"/>
       <c r="I651" s="5"/>
       <c r="J651" s="5"/>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A652" s="24"/>
+      <c r="A652" s="23"/>
       <c r="H652" s="5"/>
       <c r="I652" s="5"/>
       <c r="J652" s="5"/>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A653" s="24"/>
+      <c r="A653" s="23"/>
       <c r="H653" s="5"/>
       <c r="I653" s="5"/>
       <c r="J653" s="5"/>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A654" s="24"/>
+      <c r="A654" s="23"/>
       <c r="H654" s="5"/>
       <c r="I654" s="5"/>
       <c r="J654" s="5"/>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A655" s="24"/>
+      <c r="A655" s="23"/>
       <c r="H655" s="5"/>
       <c r="I655" s="5"/>
       <c r="J655" s="5"/>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A656" s="24"/>
+      <c r="A656" s="23"/>
       <c r="H656" s="5"/>
       <c r="I656" s="5"/>
       <c r="J656" s="5"/>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A657" s="24"/>
+      <c r="A657" s="23"/>
       <c r="H657" s="5"/>
       <c r="I657" s="5"/>
       <c r="J657" s="5"/>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A658" s="24"/>
+      <c r="A658" s="23"/>
       <c r="H658" s="5"/>
       <c r="I658" s="5"/>
       <c r="J658" s="5"/>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A659" s="24"/>
+      <c r="A659" s="23"/>
       <c r="H659" s="5"/>
       <c r="I659" s="5"/>
       <c r="J659" s="5"/>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A660" s="24"/>
+      <c r="A660" s="23"/>
       <c r="H660" s="5"/>
       <c r="I660" s="5"/>
       <c r="J660" s="5"/>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A661" s="24"/>
+      <c r="A661" s="23"/>
       <c r="H661" s="5"/>
       <c r="I661" s="5"/>
       <c r="J661" s="5"/>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A662" s="24"/>
+      <c r="A662" s="23"/>
       <c r="H662" s="5"/>
       <c r="I662" s="5"/>
       <c r="J662" s="5"/>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A663" s="24"/>
+      <c r="A663" s="23"/>
       <c r="H663" s="5"/>
       <c r="I663" s="5"/>
       <c r="J663" s="5"/>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A664" s="24"/>
+      <c r="A664" s="23"/>
       <c r="H664" s="5"/>
       <c r="I664" s="5"/>
       <c r="J664" s="5"/>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A665" s="24"/>
+      <c r="A665" s="23"/>
       <c r="H665" s="5"/>
       <c r="I665" s="5"/>
       <c r="J665" s="5"/>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A666" s="24"/>
+      <c r="A666" s="23"/>
       <c r="H666" s="5"/>
       <c r="I666" s="5"/>
       <c r="J666" s="5"/>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A667" s="24"/>
+      <c r="A667" s="23"/>
       <c r="H667" s="5"/>
       <c r="I667" s="5"/>
       <c r="J667" s="5"/>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A668" s="24"/>
+      <c r="A668" s="23"/>
       <c r="H668" s="5"/>
       <c r="I668" s="5"/>
       <c r="J668" s="5"/>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A669" s="24"/>
+      <c r="A669" s="23"/>
       <c r="H669" s="5"/>
       <c r="I669" s="5"/>
       <c r="J669" s="5"/>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A670" s="24"/>
+      <c r="A670" s="23"/>
       <c r="H670" s="5"/>
       <c r="I670" s="5"/>
       <c r="J670" s="5"/>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A671" s="24"/>
+      <c r="A671" s="23"/>
       <c r="H671" s="5"/>
       <c r="I671" s="5"/>
       <c r="J671" s="5"/>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A672" s="24"/>
+      <c r="A672" s="23"/>
       <c r="H672" s="5"/>
       <c r="I672" s="5"/>
       <c r="J672" s="5"/>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A673" s="24"/>
+      <c r="A673" s="23"/>
       <c r="H673" s="5"/>
       <c r="I673" s="5"/>
       <c r="J673" s="5"/>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A674" s="24"/>
+      <c r="A674" s="23"/>
       <c r="H674" s="5"/>
       <c r="I674" s="5"/>
       <c r="J674" s="5"/>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A675" s="24"/>
+      <c r="A675" s="23"/>
       <c r="H675" s="5"/>
       <c r="I675" s="5"/>
       <c r="J675" s="5"/>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A676" s="24"/>
+      <c r="A676" s="23"/>
       <c r="H676" s="5"/>
       <c r="I676" s="5"/>
       <c r="J676" s="5"/>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A677" s="24"/>
+      <c r="A677" s="23"/>
       <c r="H677" s="5"/>
       <c r="I677" s="5"/>
       <c r="J677" s="5"/>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A678" s="24"/>
+      <c r="A678" s="23"/>
       <c r="H678" s="5"/>
       <c r="I678" s="5"/>
       <c r="J678" s="5"/>
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A679" s="24"/>
+      <c r="A679" s="23"/>
       <c r="H679" s="5"/>
       <c r="I679" s="5"/>
       <c r="J679" s="5"/>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A680" s="24"/>
+      <c r="A680" s="23"/>
       <c r="H680" s="5"/>
       <c r="I680" s="5"/>
       <c r="J680" s="5"/>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A681" s="24"/>
+      <c r="A681" s="23"/>
       <c r="H681" s="5"/>
       <c r="I681" s="5"/>
       <c r="J681" s="5"/>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A682" s="24"/>
+      <c r="A682" s="23"/>
       <c r="H682" s="5"/>
       <c r="I682" s="5"/>
       <c r="J682" s="5"/>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A683" s="24"/>
+      <c r="A683" s="23"/>
       <c r="H683" s="5"/>
       <c r="I683" s="5"/>
       <c r="J683" s="5"/>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A684" s="24"/>
+      <c r="A684" s="23"/>
       <c r="H684" s="5"/>
       <c r="I684" s="5"/>
       <c r="J684" s="5"/>
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A685" s="24"/>
+      <c r="A685" s="23"/>
       <c r="H685" s="5"/>
       <c r="I685" s="5"/>
       <c r="J685" s="5"/>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A686" s="24"/>
+      <c r="A686" s="23"/>
       <c r="H686" s="5"/>
       <c r="I686" s="5"/>
       <c r="J686" s="5"/>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A687" s="24"/>
+      <c r="A687" s="23"/>
       <c r="H687" s="5"/>
       <c r="I687" s="5"/>
       <c r="J687" s="5"/>
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A688" s="24"/>
+      <c r="A688" s="23"/>
       <c r="H688" s="5"/>
       <c r="I688" s="5"/>
       <c r="J688" s="5"/>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A689" s="24"/>
+      <c r="A689" s="23"/>
       <c r="H689" s="5"/>
       <c r="I689" s="5"/>
       <c r="J689" s="5"/>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A690" s="24"/>
+      <c r="A690" s="23"/>
       <c r="H690" s="5"/>
       <c r="I690" s="5"/>
       <c r="J690" s="5"/>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A691" s="24"/>
+      <c r="A691" s="23"/>
       <c r="H691" s="5"/>
       <c r="I691" s="5"/>
       <c r="J691" s="5"/>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A692" s="24"/>
+      <c r="A692" s="23"/>
       <c r="H692" s="5"/>
       <c r="I692" s="5"/>
       <c r="J692" s="5"/>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A693" s="24"/>
+      <c r="A693" s="23"/>
       <c r="H693" s="5"/>
       <c r="I693" s="5"/>
       <c r="J693" s="5"/>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A694" s="24"/>
+      <c r="A694" s="23"/>
       <c r="H694" s="5"/>
       <c r="I694" s="5"/>
       <c r="J694" s="5"/>
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A695" s="24"/>
+      <c r="A695" s="23"/>
       <c r="H695" s="5"/>
       <c r="I695" s="5"/>
       <c r="J695" s="5"/>
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A696" s="24"/>
+      <c r="A696" s="23"/>
       <c r="H696" s="5"/>
       <c r="I696" s="5"/>
       <c r="J696" s="5"/>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A697" s="24"/>
+      <c r="A697" s="23"/>
       <c r="H697" s="5"/>
       <c r="I697" s="5"/>
       <c r="J697" s="5"/>
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A698" s="24"/>
+      <c r="A698" s="23"/>
       <c r="H698" s="5"/>
       <c r="I698" s="5"/>
       <c r="J698" s="5"/>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A699" s="24"/>
+      <c r="A699" s="23"/>
       <c r="H699" s="5"/>
       <c r="I699" s="5"/>
       <c r="J699" s="5"/>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A700" s="24"/>
+      <c r="A700" s="23"/>
       <c r="H700" s="5"/>
       <c r="I700" s="5"/>
       <c r="J700" s="5"/>
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A701" s="24"/>
+      <c r="A701" s="23"/>
       <c r="H701" s="5"/>
       <c r="I701" s="5"/>
       <c r="J701" s="5"/>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A702" s="24"/>
+      <c r="A702" s="23"/>
       <c r="H702" s="5"/>
       <c r="I702" s="5"/>
       <c r="J702" s="5"/>
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A703" s="24"/>
+      <c r="A703" s="23"/>
       <c r="H703" s="5"/>
       <c r="I703" s="5"/>
       <c r="J703" s="5"/>
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A704" s="24"/>
+      <c r="A704" s="23"/>
       <c r="H704" s="5"/>
       <c r="I704" s="5"/>
       <c r="J704" s="5"/>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A705" s="24"/>
+      <c r="A705" s="23"/>
       <c r="H705" s="5"/>
       <c r="I705" s="5"/>
       <c r="J705" s="5"/>
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A706" s="24"/>
+      <c r="A706" s="23"/>
       <c r="H706" s="5"/>
       <c r="I706" s="5"/>
       <c r="J706" s="5"/>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A707" s="24"/>
+      <c r="A707" s="23"/>
       <c r="H707" s="5"/>
       <c r="I707" s="5"/>
       <c r="J707" s="5"/>
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A708" s="24"/>
+      <c r="A708" s="23"/>
       <c r="H708" s="5"/>
       <c r="I708" s="5"/>
       <c r="J708" s="5"/>
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A709" s="24"/>
+      <c r="A709" s="23"/>
       <c r="H709" s="5"/>
       <c r="I709" s="5"/>
       <c r="J709" s="5"/>
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A710" s="24"/>
+      <c r="A710" s="23"/>
       <c r="H710" s="5"/>
       <c r="I710" s="5"/>
       <c r="J710" s="5"/>
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A711" s="24"/>
+      <c r="A711" s="23"/>
       <c r="H711" s="5"/>
       <c r="I711" s="5"/>
       <c r="J711" s="5"/>
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A712" s="24"/>
+      <c r="A712" s="23"/>
       <c r="H712" s="5"/>
       <c r="I712" s="5"/>
       <c r="J712" s="5"/>
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A713" s="24"/>
+      <c r="A713" s="23"/>
       <c r="H713" s="5"/>
       <c r="I713" s="5"/>
       <c r="J713" s="5"/>
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A714" s="24"/>
+      <c r="A714" s="23"/>
       <c r="H714" s="5"/>
       <c r="I714" s="5"/>
       <c r="J714" s="5"/>
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A715" s="24"/>
+      <c r="A715" s="23"/>
       <c r="H715" s="5"/>
       <c r="I715" s="5"/>
       <c r="J715" s="5"/>
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A716" s="24"/>
+      <c r="A716" s="23"/>
       <c r="H716" s="5"/>
       <c r="I716" s="5"/>
       <c r="J716" s="5"/>
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A717" s="24"/>
+      <c r="A717" s="23"/>
       <c r="H717" s="5"/>
       <c r="I717" s="5"/>
       <c r="J717" s="5"/>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A718" s="24"/>
+      <c r="A718" s="23"/>
       <c r="H718" s="5"/>
       <c r="I718" s="5"/>
       <c r="J718" s="5"/>
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A719" s="24"/>
+      <c r="A719" s="23"/>
       <c r="H719" s="5"/>
       <c r="I719" s="5"/>
       <c r="J719" s="5"/>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A720" s="24"/>
+      <c r="A720" s="23"/>
       <c r="H720" s="5"/>
       <c r="I720" s="5"/>
       <c r="J720" s="5"/>
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A721" s="24"/>
+      <c r="A721" s="23"/>
       <c r="H721" s="5"/>
       <c r="I721" s="5"/>
       <c r="J721" s="5"/>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A722" s="24"/>
+      <c r="A722" s="23"/>
       <c r="H722" s="5"/>
       <c r="I722" s="5"/>
       <c r="J722" s="5"/>
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A723" s="24"/>
+      <c r="A723" s="23"/>
       <c r="H723" s="5"/>
       <c r="I723" s="5"/>
       <c r="J723" s="5"/>
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A724" s="24"/>
+      <c r="A724" s="23"/>
       <c r="H724" s="5"/>
       <c r="I724" s="5"/>
       <c r="J724" s="5"/>
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A725" s="24"/>
+      <c r="A725" s="23"/>
       <c r="H725" s="5"/>
       <c r="I725" s="5"/>
       <c r="J725" s="5"/>
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A726" s="24"/>
+      <c r="A726" s="23"/>
       <c r="H726" s="5"/>
       <c r="I726" s="5"/>
       <c r="J726" s="5"/>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A727" s="24"/>
+      <c r="A727" s="23"/>
       <c r="H727" s="5"/>
       <c r="I727" s="5"/>
       <c r="J727" s="5"/>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A728" s="24"/>
+      <c r="A728" s="23"/>
       <c r="H728" s="5"/>
       <c r="I728" s="5"/>
       <c r="J728" s="5"/>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A729" s="24"/>
+      <c r="A729" s="23"/>
       <c r="H729" s="5"/>
       <c r="I729" s="5"/>
       <c r="J729" s="5"/>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A730" s="24"/>
+      <c r="A730" s="23"/>
       <c r="H730" s="5"/>
       <c r="I730" s="5"/>
       <c r="J730" s="5"/>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A731" s="24"/>
+      <c r="A731" s="23"/>
       <c r="H731" s="5"/>
       <c r="I731" s="5"/>
       <c r="J731" s="5"/>
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A732" s="24"/>
+      <c r="A732" s="23"/>
       <c r="H732" s="5"/>
       <c r="I732" s="5"/>
       <c r="J732" s="5"/>
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A733" s="24"/>
+      <c r="A733" s="23"/>
       <c r="H733" s="5"/>
       <c r="I733" s="5"/>
       <c r="J733" s="5"/>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A734" s="24"/>
+      <c r="A734" s="23"/>
       <c r="H734" s="5"/>
       <c r="I734" s="5"/>
       <c r="J734" s="5"/>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A735" s="24"/>
+      <c r="A735" s="23"/>
       <c r="H735" s="5"/>
       <c r="I735" s="5"/>
       <c r="J735" s="5"/>
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A736" s="24"/>
+      <c r="A736" s="23"/>
       <c r="H736" s="5"/>
       <c r="I736" s="5"/>
       <c r="J736" s="5"/>
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A737" s="24"/>
+      <c r="A737" s="23"/>
       <c r="H737" s="5"/>
       <c r="I737" s="5"/>
       <c r="J737" s="5"/>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A738" s="24"/>
+      <c r="A738" s="23"/>
       <c r="H738" s="5"/>
       <c r="I738" s="5"/>
       <c r="J738" s="5"/>
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A739" s="24"/>
+      <c r="A739" s="23"/>
       <c r="H739" s="5"/>
       <c r="I739" s="5"/>
       <c r="J739" s="5"/>
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A740" s="24"/>
+      <c r="A740" s="23"/>
       <c r="H740" s="5"/>
       <c r="I740" s="5"/>
       <c r="J740" s="5"/>
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A741" s="24"/>
+      <c r="A741" s="23"/>
       <c r="H741" s="5"/>
       <c r="I741" s="5"/>
       <c r="J741" s="5"/>
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A742" s="24"/>
+      <c r="A742" s="23"/>
       <c r="H742" s="5"/>
       <c r="I742" s="5"/>
       <c r="J742" s="5"/>
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A743" s="24"/>
+      <c r="A743" s="23"/>
       <c r="H743" s="5"/>
       <c r="I743" s="5"/>
       <c r="J743" s="5"/>
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A744" s="24"/>
+      <c r="A744" s="23"/>
       <c r="H744" s="5"/>
       <c r="I744" s="5"/>
       <c r="J744" s="5"/>
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A745" s="24"/>
+      <c r="A745" s="23"/>
       <c r="H745" s="5"/>
       <c r="I745" s="5"/>
       <c r="J745" s="5"/>
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A746" s="24"/>
+      <c r="A746" s="23"/>
       <c r="H746" s="5"/>
       <c r="I746" s="5"/>
       <c r="J746" s="5"/>
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A747" s="24"/>
+      <c r="A747" s="23"/>
       <c r="H747" s="5"/>
       <c r="I747" s="5"/>
       <c r="J747" s="5"/>
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A748" s="24"/>
+      <c r="A748" s="23"/>
       <c r="H748" s="5"/>
       <c r="I748" s="5"/>
       <c r="J748" s="5"/>
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A749" s="24"/>
+      <c r="A749" s="23"/>
       <c r="H749" s="5"/>
       <c r="I749" s="5"/>
       <c r="J749" s="5"/>
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A750" s="24"/>
+      <c r="A750" s="23"/>
       <c r="H750" s="5"/>
       <c r="I750" s="5"/>
       <c r="J750" s="5"/>
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A751" s="24"/>
+      <c r="A751" s="23"/>
       <c r="H751" s="5"/>
       <c r="I751" s="5"/>
       <c r="J751" s="5"/>
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A752" s="24"/>
+      <c r="A752" s="23"/>
       <c r="H752" s="5"/>
       <c r="I752" s="5"/>
       <c r="J752" s="5"/>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A753" s="24"/>
+      <c r="A753" s="23"/>
       <c r="H753" s="5"/>
       <c r="I753" s="5"/>
       <c r="J753" s="5"/>
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A754" s="24"/>
+      <c r="A754" s="23"/>
       <c r="H754" s="5"/>
       <c r="I754" s="5"/>
       <c r="J754" s="5"/>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A755" s="24"/>
+      <c r="A755" s="23"/>
       <c r="H755" s="5"/>
       <c r="I755" s="5"/>
       <c r="J755" s="5"/>
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A756" s="24"/>
+      <c r="A756" s="23"/>
       <c r="H756" s="5"/>
       <c r="I756" s="5"/>
       <c r="J756" s="5"/>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A757" s="24"/>
+      <c r="A757" s="23"/>
       <c r="H757" s="5"/>
       <c r="I757" s="5"/>
       <c r="J757" s="5"/>
     </row>
     <row r="758" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A758" s="24"/>
+      <c r="A758" s="23"/>
       <c r="H758" s="5"/>
       <c r="I758" s="5"/>
       <c r="J758" s="5"/>
     </row>
     <row r="759" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A759" s="24"/>
+      <c r="A759" s="23"/>
       <c r="H759" s="5"/>
       <c r="I759" s="5"/>
       <c r="J759" s="5"/>
     </row>
     <row r="760" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A760" s="24"/>
+      <c r="A760" s="23"/>
       <c r="H760" s="5"/>
       <c r="I760" s="5"/>
       <c r="J760" s="5"/>
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A761" s="24"/>
+      <c r="A761" s="23"/>
       <c r="H761" s="5"/>
       <c r="I761" s="5"/>
       <c r="J761" s="5"/>
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A762" s="24"/>
+      <c r="A762" s="23"/>
       <c r="H762" s="5"/>
       <c r="I762" s="5"/>
       <c r="J762" s="5"/>
     </row>
     <row r="763" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A763" s="24"/>
+      <c r="A763" s="23"/>
       <c r="H763" s="5"/>
       <c r="I763" s="5"/>
       <c r="J763" s="5"/>
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A764" s="24"/>
+      <c r="A764" s="23"/>
       <c r="H764" s="5"/>
       <c r="I764" s="5"/>
       <c r="J764" s="5"/>
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A765" s="24"/>
+      <c r="A765" s="23"/>
       <c r="H765" s="5"/>
       <c r="I765" s="5"/>
       <c r="J765" s="5"/>
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A766" s="24"/>
+      <c r="A766" s="23"/>
       <c r="H766" s="5"/>
       <c r="I766" s="5"/>
       <c r="J766" s="5"/>
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A767" s="24"/>
+      <c r="A767" s="23"/>
       <c r="H767" s="5"/>
       <c r="I767" s="5"/>
       <c r="J767" s="5"/>
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A768" s="24"/>
+      <c r="A768" s="23"/>
       <c r="H768" s="5"/>
       <c r="I768" s="5"/>
       <c r="J768" s="5"/>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A769" s="24"/>
+      <c r="A769" s="23"/>
       <c r="H769" s="5"/>
       <c r="I769" s="5"/>
       <c r="J769" s="5"/>
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A770" s="24"/>
+      <c r="A770" s="23"/>
       <c r="H770" s="5"/>
       <c r="I770" s="5"/>
       <c r="J770" s="5"/>
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A771" s="24"/>
+      <c r="A771" s="23"/>
       <c r="H771" s="5"/>
       <c r="I771" s="5"/>
       <c r="J771" s="5"/>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A772" s="24"/>
+      <c r="A772" s="23"/>
       <c r="H772" s="5"/>
       <c r="I772" s="5"/>
       <c r="J772" s="5"/>
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A773" s="24"/>
+      <c r="A773" s="23"/>
       <c r="H773" s="5"/>
       <c r="I773" s="5"/>
       <c r="J773" s="5"/>
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A774" s="24"/>
+      <c r="A774" s="23"/>
       <c r="H774" s="5"/>
       <c r="I774" s="5"/>
       <c r="J774" s="5"/>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A775" s="24"/>
+      <c r="A775" s="23"/>
       <c r="H775" s="5"/>
       <c r="I775" s="5"/>
       <c r="J775" s="5"/>
     </row>
     <row r="776" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A776" s="24"/>
+      <c r="A776" s="23"/>
       <c r="H776" s="5"/>
       <c r="I776" s="5"/>
       <c r="J776" s="5"/>
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A777" s="24"/>
+      <c r="A777" s="23"/>
       <c r="H777" s="5"/>
       <c r="I777" s="5"/>
       <c r="J777" s="5"/>
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A778" s="24"/>
+      <c r="A778" s="23"/>
       <c r="H778" s="5"/>
       <c r="I778" s="5"/>
       <c r="J778" s="5"/>
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A779" s="24"/>
+      <c r="A779" s="23"/>
       <c r="H779" s="5"/>
       <c r="I779" s="5"/>
       <c r="J779" s="5"/>
     </row>
     <row r="780" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A780" s="24"/>
+      <c r="A780" s="23"/>
       <c r="H780" s="5"/>
       <c r="I780" s="5"/>
       <c r="J780" s="5"/>
     </row>
     <row r="781" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A781" s="24"/>
+      <c r="A781" s="23"/>
       <c r="H781" s="5"/>
       <c r="I781" s="5"/>
       <c r="J781" s="5"/>
     </row>
     <row r="782" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A782" s="24"/>
+      <c r="A782" s="23"/>
       <c r="H782" s="5"/>
       <c r="I782" s="5"/>
       <c r="J782" s="5"/>
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A783" s="24"/>
+      <c r="A783" s="23"/>
       <c r="H783" s="5"/>
       <c r="I783" s="5"/>
       <c r="J783" s="5"/>
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A784" s="24"/>
+      <c r="A784" s="23"/>
       <c r="H784" s="5"/>
       <c r="I784" s="5"/>
       <c r="J784" s="5"/>
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A785" s="24"/>
+      <c r="A785" s="23"/>
       <c r="H785" s="5"/>
       <c r="I785" s="5"/>
       <c r="J785" s="5"/>
     </row>
     <row r="786" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A786" s="24"/>
+      <c r="A786" s="23"/>
       <c r="H786" s="5"/>
       <c r="I786" s="5"/>
       <c r="J786" s="5"/>
     </row>
     <row r="787" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A787" s="24"/>
+      <c r="A787" s="23"/>
       <c r="H787" s="5"/>
       <c r="I787" s="5"/>
       <c r="J787" s="5"/>
     </row>
     <row r="788" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A788" s="24"/>
+      <c r="A788" s="23"/>
       <c r="H788" s="5"/>
       <c r="I788" s="5"/>
       <c r="J788" s="5"/>
     </row>
     <row r="789" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A789" s="24"/>
+      <c r="A789" s="23"/>
       <c r="H789" s="5"/>
       <c r="I789" s="5"/>
       <c r="J789" s="5"/>
     </row>
     <row r="790" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A790" s="24"/>
+      <c r="A790" s="23"/>
       <c r="H790" s="5"/>
       <c r="I790" s="5"/>
       <c r="J790" s="5"/>
     </row>
     <row r="791" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A791" s="24"/>
+      <c r="A791" s="23"/>
       <c r="H791" s="5"/>
       <c r="I791" s="5"/>
       <c r="J791" s="5"/>
     </row>
     <row r="792" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A792" s="24"/>
+      <c r="A792" s="23"/>
       <c r="H792" s="5"/>
       <c r="I792" s="5"/>
       <c r="J792" s="5"/>
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A793" s="24"/>
+      <c r="A793" s="23"/>
       <c r="H793" s="5"/>
       <c r="I793" s="5"/>
       <c r="J793" s="5"/>
     </row>
     <row r="794" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A794" s="24"/>
+      <c r="A794" s="23"/>
       <c r="H794" s="5"/>
       <c r="I794" s="5"/>
       <c r="J794" s="5"/>
     </row>
     <row r="795" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A795" s="24"/>
+      <c r="A795" s="23"/>
       <c r="H795" s="5"/>
       <c r="I795" s="5"/>
       <c r="J795" s="5"/>
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A796" s="24"/>
+      <c r="A796" s="23"/>
       <c r="H796" s="5"/>
       <c r="I796" s="5"/>
       <c r="J796" s="5"/>
     </row>
     <row r="797" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A797" s="24"/>
+      <c r="A797" s="23"/>
       <c r="H797" s="5"/>
       <c r="I797" s="5"/>
       <c r="J797" s="5"/>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A798" s="24"/>
+      <c r="A798" s="23"/>
       <c r="H798" s="5"/>
       <c r="I798" s="5"/>
       <c r="J798" s="5"/>
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A799" s="24"/>
+      <c r="A799" s="23"/>
       <c r="H799" s="5"/>
       <c r="I799" s="5"/>
       <c r="J799" s="5"/>
     </row>
     <row r="800" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A800" s="24"/>
+      <c r="A800" s="23"/>
       <c r="H800" s="5"/>
       <c r="I800" s="5"/>
       <c r="J800" s="5"/>
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A801" s="24"/>
+      <c r="A801" s="23"/>
       <c r="H801" s="5"/>
       <c r="I801" s="5"/>
       <c r="J801" s="5"/>
     </row>
     <row r="802" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A802" s="24"/>
+      <c r="A802" s="23"/>
       <c r="H802" s="5"/>
       <c r="I802" s="5"/>
       <c r="J802" s="5"/>
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A803" s="24"/>
+      <c r="A803" s="23"/>
       <c r="H803" s="5"/>
       <c r="I803" s="5"/>
       <c r="J803" s="5"/>
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A804" s="24"/>
+      <c r="A804" s="23"/>
       <c r="H804" s="5"/>
       <c r="I804" s="5"/>
       <c r="J804" s="5"/>
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A805" s="24"/>
+      <c r="A805" s="23"/>
       <c r="H805" s="5"/>
       <c r="I805" s="5"/>
       <c r="J805" s="5"/>
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A806" s="24"/>
+      <c r="A806" s="23"/>
       <c r="H806" s="5"/>
       <c r="I806" s="5"/>
       <c r="J806" s="5"/>
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A807" s="24"/>
+      <c r="A807" s="23"/>
       <c r="H807" s="5"/>
       <c r="I807" s="5"/>
       <c r="J807" s="5"/>
     </row>
     <row r="808" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A808" s="24"/>
+      <c r="A808" s="23"/>
       <c r="H808" s="5"/>
       <c r="I808" s="5"/>
       <c r="J808" s="5"/>
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A809" s="24"/>
+      <c r="A809" s="23"/>
       <c r="H809" s="5"/>
       <c r="I809" s="5"/>
       <c r="J809" s="5"/>
     </row>
     <row r="810" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A810" s="24"/>
+      <c r="A810" s="23"/>
       <c r="H810" s="5"/>
       <c r="I810" s="5"/>
       <c r="J810" s="5"/>
     </row>
     <row r="811" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A811" s="24"/>
+      <c r="A811" s="23"/>
       <c r="H811" s="5"/>
       <c r="I811" s="5"/>
       <c r="J811" s="5"/>
     </row>
     <row r="812" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A812" s="24"/>
+      <c r="A812" s="23"/>
       <c r="H812" s="5"/>
       <c r="I812" s="5"/>
       <c r="J812" s="5"/>
     </row>
     <row r="813" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A813" s="24"/>
+      <c r="A813" s="23"/>
       <c r="H813" s="5"/>
       <c r="I813" s="5"/>
       <c r="J813" s="5"/>
     </row>
     <row r="814" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A814" s="24"/>
+      <c r="A814" s="23"/>
       <c r="H814" s="5"/>
       <c r="I814" s="5"/>
       <c r="J814" s="5"/>
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A815" s="24"/>
+      <c r="A815" s="23"/>
       <c r="H815" s="5"/>
       <c r="I815" s="5"/>
       <c r="J815" s="5"/>
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A816" s="24"/>
+      <c r="A816" s="23"/>
       <c r="H816" s="5"/>
       <c r="I816" s="5"/>
       <c r="J816" s="5"/>
     </row>
     <row r="817" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A817" s="24"/>
+      <c r="A817" s="23"/>
       <c r="H817" s="5"/>
       <c r="I817" s="5"/>
       <c r="J817" s="5"/>
     </row>
     <row r="818" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A818" s="24"/>
+      <c r="A818" s="23"/>
       <c r="H818" s="5"/>
       <c r="I818" s="5"/>
       <c r="J818" s="5"/>
     </row>
     <row r="819" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A819" s="24"/>
+      <c r="A819" s="23"/>
       <c r="H819" s="5"/>
       <c r="I819" s="5"/>
       <c r="J819" s="5"/>
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A820" s="24"/>
+      <c r="A820" s="23"/>
       <c r="H820" s="5"/>
       <c r="I820" s="5"/>
       <c r="J820" s="5"/>
     </row>
     <row r="821" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A821" s="24"/>
+      <c r="A821" s="23"/>
       <c r="H821" s="5"/>
       <c r="I821" s="5"/>
       <c r="J821" s="5"/>
     </row>
     <row r="822" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A822" s="24"/>
+      <c r="A822" s="23"/>
       <c r="H822" s="5"/>
       <c r="I822" s="5"/>
       <c r="J822" s="5"/>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A823" s="24"/>
+      <c r="A823" s="23"/>
       <c r="H823" s="5"/>
       <c r="I823" s="5"/>
       <c r="J823" s="5"/>
     </row>
     <row r="824" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A824" s="24"/>
+      <c r="A824" s="23"/>
       <c r="H824" s="5"/>
       <c r="I824" s="5"/>
       <c r="J824" s="5"/>
     </row>
     <row r="825" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A825" s="24"/>
+      <c r="A825" s="23"/>
       <c r="H825" s="5"/>
       <c r="I825" s="5"/>
       <c r="J825" s="5"/>
     </row>
     <row r="826" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A826" s="24"/>
+      <c r="A826" s="23"/>
       <c r="H826" s="5"/>
       <c r="I826" s="5"/>
       <c r="J826" s="5"/>
     </row>
     <row r="827" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A827" s="24"/>
+      <c r="A827" s="23"/>
       <c r="H827" s="5"/>
       <c r="I827" s="5"/>
       <c r="J827" s="5"/>
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A828" s="24"/>
+      <c r="A828" s="23"/>
       <c r="H828" s="5"/>
       <c r="I828" s="5"/>
       <c r="J828" s="5"/>
     </row>
     <row r="829" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A829" s="24"/>
+      <c r="A829" s="23"/>
       <c r="H829" s="5"/>
       <c r="I829" s="5"/>
       <c r="J829" s="5"/>
     </row>
     <row r="830" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A830" s="24"/>
+      <c r="A830" s="23"/>
       <c r="H830" s="5"/>
       <c r="I830" s="5"/>
       <c r="J830" s="5"/>
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A831" s="24"/>
+      <c r="A831" s="23"/>
       <c r="H831" s="5"/>
       <c r="I831" s="5"/>
       <c r="J831" s="5"/>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A832" s="24"/>
+      <c r="A832" s="23"/>
       <c r="H832" s="5"/>
       <c r="I832" s="5"/>
       <c r="J832" s="5"/>
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A833" s="24"/>
+      <c r="A833" s="23"/>
       <c r="H833" s="5"/>
       <c r="I833" s="5"/>
       <c r="J833" s="5"/>
     </row>
     <row r="834" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A834" s="24"/>
+      <c r="A834" s="23"/>
       <c r="H834" s="5"/>
       <c r="I834" s="5"/>
       <c r="J834" s="5"/>
     </row>
     <row r="835" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A835" s="24"/>
+      <c r="A835" s="23"/>
       <c r="H835" s="5"/>
       <c r="I835" s="5"/>
       <c r="J835" s="5"/>
     </row>
     <row r="836" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A836" s="24"/>
+      <c r="A836" s="23"/>
       <c r="H836" s="5"/>
       <c r="I836" s="5"/>
       <c r="J836" s="5"/>
     </row>
     <row r="837" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A837" s="24"/>
+      <c r="A837" s="23"/>
       <c r="H837" s="5"/>
       <c r="I837" s="5"/>
       <c r="J837" s="5"/>
     </row>
     <row r="838" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A838" s="24"/>
+      <c r="A838" s="23"/>
       <c r="H838" s="5"/>
       <c r="I838" s="5"/>
       <c r="J838" s="5"/>
     </row>
     <row r="839" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A839" s="24"/>
+      <c r="A839" s="23"/>
       <c r="H839" s="5"/>
       <c r="I839" s="5"/>
       <c r="J839" s="5"/>
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A840" s="24"/>
+      <c r="A840" s="23"/>
       <c r="H840" s="5"/>
       <c r="I840" s="5"/>
       <c r="J840" s="5"/>
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A841" s="24"/>
+      <c r="A841" s="23"/>
       <c r="H841" s="5"/>
       <c r="I841" s="5"/>
       <c r="J841" s="5"/>
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A842" s="24"/>
+      <c r="A842" s="23"/>
       <c r="H842" s="5"/>
       <c r="I842" s="5"/>
       <c r="J842" s="5"/>
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A843" s="24"/>
+      <c r="A843" s="23"/>
       <c r="H843" s="5"/>
       <c r="I843" s="5"/>
       <c r="J843" s="5"/>
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A844" s="24"/>
+      <c r="A844" s="23"/>
       <c r="H844" s="5"/>
       <c r="I844" s="5"/>
       <c r="J844" s="5"/>
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A845" s="24"/>
+      <c r="A845" s="23"/>
       <c r="H845" s="5"/>
       <c r="I845" s="5"/>
       <c r="J845" s="5"/>
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A846" s="24"/>
+      <c r="A846" s="23"/>
       <c r="H846" s="5"/>
       <c r="I846" s="5"/>
       <c r="J846" s="5"/>
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A847" s="24"/>
+      <c r="A847" s="23"/>
       <c r="H847" s="5"/>
       <c r="I847" s="5"/>
       <c r="J847" s="5"/>
     </row>
     <row r="848" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A848" s="24"/>
+      <c r="A848" s="23"/>
       <c r="H848" s="5"/>
       <c r="I848" s="5"/>
       <c r="J848" s="5"/>
     </row>
     <row r="849" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A849" s="24"/>
+      <c r="A849" s="23"/>
       <c r="H849" s="5"/>
       <c r="I849" s="5"/>
       <c r="J849" s="5"/>
     </row>
     <row r="850" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A850" s="24"/>
+      <c r="A850" s="23"/>
       <c r="H850" s="5"/>
       <c r="I850" s="5"/>
       <c r="J850" s="5"/>
     </row>
     <row r="851" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A851" s="24"/>
+      <c r="A851" s="23"/>
       <c r="H851" s="5"/>
       <c r="I851" s="5"/>
       <c r="J851" s="5"/>
     </row>
     <row r="852" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A852" s="24"/>
+      <c r="A852" s="23"/>
       <c r="H852" s="5"/>
       <c r="I852" s="5"/>
       <c r="J852" s="5"/>
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A853" s="24"/>
+      <c r="A853" s="23"/>
       <c r="H853" s="5"/>
       <c r="I853" s="5"/>
       <c r="J853" s="5"/>
     </row>
     <row r="854" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A854" s="24"/>
+      <c r="A854" s="23"/>
       <c r="H854" s="5"/>
       <c r="I854" s="5"/>
       <c r="J854" s="5"/>
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A855" s="24"/>
+      <c r="A855" s="23"/>
       <c r="H855" s="5"/>
       <c r="I855" s="5"/>
       <c r="J855" s="5"/>
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A856" s="24"/>
+      <c r="A856" s="23"/>
       <c r="H856" s="5"/>
       <c r="I856" s="5"/>
       <c r="J856" s="5"/>
     </row>
     <row r="857" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A857" s="24"/>
+      <c r="A857" s="23"/>
       <c r="H857" s="5"/>
       <c r="I857" s="5"/>
       <c r="J857" s="5"/>
     </row>
     <row r="858" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A858" s="24"/>
+      <c r="A858" s="23"/>
       <c r="H858" s="5"/>
       <c r="I858" s="5"/>
       <c r="J858" s="5"/>
     </row>
     <row r="859" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A859" s="24"/>
+      <c r="A859" s="23"/>
       <c r="H859" s="5"/>
       <c r="I859" s="5"/>
       <c r="J859" s="5"/>
     </row>
     <row r="860" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A860" s="24"/>
+      <c r="A860" s="23"/>
       <c r="H860" s="5"/>
       <c r="I860" s="5"/>
       <c r="J860" s="5"/>
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A861" s="24"/>
+      <c r="A861" s="23"/>
       <c r="H861" s="5"/>
       <c r="I861" s="5"/>
       <c r="J861" s="5"/>
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A862" s="24"/>
+      <c r="A862" s="23"/>
       <c r="H862" s="5"/>
       <c r="I862" s="5"/>
       <c r="J862" s="5"/>
     </row>
     <row r="863" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A863" s="24"/>
+      <c r="A863" s="23"/>
       <c r="H863" s="5"/>
       <c r="I863" s="5"/>
       <c r="J863" s="5"/>
     </row>
     <row r="864" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A864" s="24"/>
+      <c r="A864" s="23"/>
       <c r="H864" s="5"/>
       <c r="I864" s="5"/>
       <c r="J864" s="5"/>
     </row>
     <row r="865" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A865" s="24"/>
+      <c r="A865" s="23"/>
       <c r="H865" s="5"/>
       <c r="I865" s="5"/>
       <c r="J865" s="5"/>
     </row>
     <row r="866" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A866" s="24"/>
+      <c r="A866" s="23"/>
       <c r="H866" s="5"/>
       <c r="I866" s="5"/>
       <c r="J866" s="5"/>
     </row>
     <row r="867" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A867" s="24"/>
+      <c r="A867" s="23"/>
       <c r="H867" s="5"/>
       <c r="I867" s="5"/>
       <c r="J867" s="5"/>
     </row>
     <row r="868" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A868" s="24"/>
+      <c r="A868" s="23"/>
       <c r="H868" s="5"/>
       <c r="I868" s="5"/>
       <c r="J868" s="5"/>
     </row>
     <row r="869" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A869" s="24"/>
+      <c r="A869" s="23"/>
       <c r="H869" s="5"/>
       <c r="I869" s="5"/>
       <c r="J869" s="5"/>
     </row>
     <row r="870" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A870" s="24"/>
+      <c r="A870" s="23"/>
       <c r="H870" s="5"/>
       <c r="I870" s="5"/>
       <c r="J870" s="5"/>
     </row>
     <row r="871" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A871" s="24"/>
+      <c r="A871" s="23"/>
       <c r="H871" s="5"/>
       <c r="I871" s="5"/>
       <c r="J871" s="5"/>
     </row>
     <row r="872" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A872" s="24"/>
+      <c r="A872" s="23"/>
       <c r="H872" s="5"/>
       <c r="I872" s="5"/>
       <c r="J872" s="5"/>
     </row>
     <row r="873" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A873" s="24"/>
+      <c r="A873" s="23"/>
       <c r="H873" s="5"/>
       <c r="I873" s="5"/>
       <c r="J873" s="5"/>
     </row>
     <row r="874" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A874" s="24"/>
+      <c r="A874" s="23"/>
       <c r="H874" s="5"/>
       <c r="I874" s="5"/>
       <c r="J874" s="5"/>
     </row>
     <row r="875" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A875" s="24"/>
+      <c r="A875" s="23"/>
       <c r="H875" s="5"/>
       <c r="I875" s="5"/>
       <c r="J875" s="5"/>
     </row>
     <row r="876" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A876" s="24"/>
+      <c r="A876" s="23"/>
       <c r="H876" s="5"/>
       <c r="I876" s="5"/>
       <c r="J876" s="5"/>
     </row>
     <row r="877" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A877" s="24"/>
+      <c r="A877" s="23"/>
       <c r="H877" s="5"/>
       <c r="I877" s="5"/>
       <c r="J877" s="5"/>
     </row>
     <row r="878" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A878" s="24"/>
+      <c r="A878" s="23"/>
       <c r="H878" s="5"/>
       <c r="I878" s="5"/>
       <c r="J878" s="5"/>
     </row>
     <row r="879" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A879" s="24"/>
+      <c r="A879" s="23"/>
       <c r="H879" s="5"/>
       <c r="I879" s="5"/>
       <c r="J879" s="5"/>
     </row>
     <row r="880" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A880" s="24"/>
+      <c r="A880" s="23"/>
       <c r="H880" s="5"/>
       <c r="I880" s="5"/>
       <c r="J880" s="5"/>
     </row>
     <row r="881" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A881" s="24"/>
+      <c r="A881" s="23"/>
       <c r="H881" s="5"/>
       <c r="I881" s="5"/>
       <c r="J881" s="5"/>
     </row>
     <row r="882" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A882" s="24"/>
+      <c r="A882" s="23"/>
       <c r="H882" s="5"/>
       <c r="I882" s="5"/>
       <c r="J882" s="5"/>
     </row>
     <row r="883" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A883" s="24"/>
+      <c r="A883" s="23"/>
       <c r="H883" s="5"/>
       <c r="I883" s="5"/>
       <c r="J883" s="5"/>
     </row>
     <row r="884" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A884" s="24"/>
+      <c r="A884" s="23"/>
       <c r="H884" s="5"/>
       <c r="I884" s="5"/>
       <c r="J884" s="5"/>
     </row>
     <row r="885" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A885" s="24"/>
+      <c r="A885" s="23"/>
       <c r="H885" s="5"/>
       <c r="I885" s="5"/>
       <c r="J885" s="5"/>
     </row>
     <row r="886" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A886" s="24"/>
+      <c r="A886" s="23"/>
       <c r="H886" s="5"/>
       <c r="I886" s="5"/>
       <c r="J886" s="5"/>
     </row>
     <row r="887" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A887" s="24"/>
+      <c r="A887" s="23"/>
       <c r="H887" s="5"/>
       <c r="I887" s="5"/>
       <c r="J887" s="5"/>
     </row>
     <row r="888" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A888" s="24"/>
+      <c r="A888" s="23"/>
       <c r="H888" s="5"/>
       <c r="I888" s="5"/>
       <c r="J888" s="5"/>
     </row>
     <row r="889" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A889" s="24"/>
+      <c r="A889" s="23"/>
       <c r="H889" s="5"/>
       <c r="I889" s="5"/>
       <c r="J889" s="5"/>
     </row>
     <row r="890" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A890" s="24"/>
+      <c r="A890" s="23"/>
       <c r="H890" s="5"/>
       <c r="I890" s="5"/>
       <c r="J890" s="5"/>
     </row>
     <row r="891" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A891" s="24"/>
+      <c r="A891" s="23"/>
       <c r="H891" s="5"/>
       <c r="I891" s="5"/>
       <c r="J891" s="5"/>
     </row>
     <row r="892" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A892" s="24"/>
+      <c r="A892" s="23"/>
       <c r="H892" s="5"/>
       <c r="I892" s="5"/>
       <c r="J892" s="5"/>
     </row>
     <row r="893" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A893" s="24"/>
+      <c r="A893" s="23"/>
       <c r="H893" s="5"/>
       <c r="I893" s="5"/>
       <c r="J893" s="5"/>
     </row>
     <row r="894" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A894" s="24"/>
+      <c r="A894" s="23"/>
       <c r="H894" s="5"/>
       <c r="I894" s="5"/>
       <c r="J894" s="5"/>
     </row>
     <row r="895" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A895" s="24"/>
+      <c r="A895" s="23"/>
       <c r="H895" s="5"/>
       <c r="I895" s="5"/>
       <c r="J895" s="5"/>
     </row>
     <row r="896" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A896" s="24"/>
+      <c r="A896" s="23"/>
       <c r="H896" s="5"/>
       <c r="I896" s="5"/>
       <c r="J896" s="5"/>
     </row>
     <row r="897" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A897" s="24"/>
+      <c r="A897" s="23"/>
       <c r="H897" s="5"/>
       <c r="I897" s="5"/>
       <c r="J897" s="5"/>
     </row>
     <row r="898" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A898" s="24"/>
+      <c r="A898" s="23"/>
       <c r="H898" s="5"/>
       <c r="I898" s="5"/>
       <c r="J898" s="5"/>
     </row>
     <row r="899" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A899" s="24"/>
+      <c r="A899" s="23"/>
       <c r="H899" s="5"/>
       <c r="I899" s="5"/>
       <c r="J899" s="5"/>
     </row>
     <row r="900" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A900" s="24"/>
+      <c r="A900" s="23"/>
       <c r="H900" s="5"/>
       <c r="I900" s="5"/>
       <c r="J900" s="5"/>
     </row>
     <row r="901" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A901" s="24"/>
+      <c r="A901" s="23"/>
       <c r="H901" s="5"/>
       <c r="I901" s="5"/>
       <c r="J901" s="5"/>
     </row>
     <row r="902" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A902" s="24"/>
+      <c r="A902" s="23"/>
       <c r="H902" s="5"/>
       <c r="I902" s="5"/>
       <c r="J902" s="5"/>
     </row>
     <row r="903" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A903" s="24"/>
+      <c r="A903" s="23"/>
       <c r="H903" s="5"/>
       <c r="I903" s="5"/>
       <c r="J903" s="5"/>
     </row>
     <row r="904" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A904" s="24"/>
+      <c r="A904" s="23"/>
       <c r="H904" s="5"/>
       <c r="I904" s="5"/>
       <c r="J904" s="5"/>
     </row>
     <row r="905" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A905" s="24"/>
+      <c r="A905" s="23"/>
       <c r="H905" s="5"/>
       <c r="I905" s="5"/>
       <c r="J905" s="5"/>
     </row>
     <row r="906" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A906" s="24"/>
+      <c r="A906" s="23"/>
       <c r="H906" s="5"/>
       <c r="I906" s="5"/>
       <c r="J906" s="5"/>
     </row>
     <row r="907" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A907" s="24"/>
+      <c r="A907" s="23"/>
       <c r="H907" s="5"/>
       <c r="I907" s="5"/>
       <c r="J907" s="5"/>
     </row>
     <row r="908" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A908" s="24"/>
+      <c r="A908" s="23"/>
       <c r="H908" s="5"/>
       <c r="I908" s="5"/>
       <c r="J908" s="5"/>
     </row>
     <row r="909" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A909" s="24"/>
+      <c r="A909" s="23"/>
       <c r="H909" s="5"/>
       <c r="I909" s="5"/>
       <c r="J909" s="5"/>
     </row>
     <row r="910" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A910" s="24"/>
+      <c r="A910" s="23"/>
       <c r="H910" s="5"/>
       <c r="I910" s="5"/>
       <c r="J910" s="5"/>
     </row>
     <row r="911" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A911" s="24"/>
+      <c r="A911" s="23"/>
       <c r="H911" s="5"/>
       <c r="I911" s="5"/>
       <c r="J911" s="5"/>
     </row>
     <row r="912" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A912" s="24"/>
+      <c r="A912" s="23"/>
       <c r="H912" s="5"/>
       <c r="I912" s="5"/>
       <c r="J912" s="5"/>
     </row>
     <row r="913" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A913" s="24"/>
+      <c r="A913" s="23"/>
       <c r="H913" s="5"/>
       <c r="I913" s="5"/>
       <c r="J913" s="5"/>
     </row>
     <row r="914" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A914" s="24"/>
+      <c r="A914" s="23"/>
       <c r="H914" s="5"/>
       <c r="I914" s="5"/>
       <c r="J914" s="5"/>
     </row>
     <row r="915" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A915" s="24"/>
+      <c r="A915" s="23"/>
       <c r="H915" s="5"/>
       <c r="I915" s="5"/>
       <c r="J915" s="5"/>
     </row>
     <row r="916" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A916" s="24"/>
+      <c r="A916" s="23"/>
       <c r="H916" s="5"/>
       <c r="I916" s="5"/>
       <c r="J916" s="5"/>
     </row>
     <row r="917" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A917" s="24"/>
+      <c r="A917" s="23"/>
       <c r="H917" s="5"/>
       <c r="I917" s="5"/>
       <c r="J917" s="5"/>
     </row>
     <row r="918" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A918" s="24"/>
+      <c r="A918" s="23"/>
       <c r="H918" s="5"/>
       <c r="I918" s="5"/>
       <c r="J918" s="5"/>
     </row>
     <row r="919" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A919" s="24"/>
+      <c r="A919" s="23"/>
       <c r="H919" s="5"/>
       <c r="I919" s="5"/>
       <c r="J919" s="5"/>
     </row>
     <row r="920" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A920" s="24"/>
+      <c r="A920" s="23"/>
       <c r="H920" s="5"/>
       <c r="I920" s="5"/>
       <c r="J920" s="5"/>
     </row>
     <row r="921" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A921" s="24"/>
+      <c r="A921" s="23"/>
       <c r="H921" s="5"/>
       <c r="I921" s="5"/>
       <c r="J921" s="5"/>
     </row>
     <row r="922" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A922" s="24"/>
+      <c r="A922" s="23"/>
       <c r="H922" s="5"/>
       <c r="I922" s="5"/>
       <c r="J922" s="5"/>
     </row>
     <row r="923" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A923" s="24"/>
+      <c r="A923" s="23"/>
       <c r="H923" s="5"/>
       <c r="I923" s="5"/>
       <c r="J923" s="5"/>
     </row>
     <row r="924" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A924" s="24"/>
+      <c r="A924" s="23"/>
       <c r="H924" s="5"/>
       <c r="I924" s="5"/>
       <c r="J924" s="5"/>
     </row>
     <row r="925" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A925" s="24"/>
+      <c r="A925" s="23"/>
       <c r="H925" s="5"/>
       <c r="I925" s="5"/>
       <c r="J925" s="5"/>
     </row>
     <row r="926" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A926" s="24"/>
+      <c r="A926" s="23"/>
       <c r="H926" s="5"/>
       <c r="I926" s="5"/>
       <c r="J926" s="5"/>
     </row>
     <row r="927" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A927" s="24"/>
+      <c r="A927" s="23"/>
       <c r="H927" s="5"/>
       <c r="I927" s="5"/>
       <c r="J927" s="5"/>
     </row>
     <row r="928" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A928" s="24"/>
+      <c r="A928" s="23"/>
       <c r="H928" s="5"/>
       <c r="I928" s="5"/>
       <c r="J928" s="5"/>
     </row>
     <row r="929" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A929" s="24"/>
+      <c r="A929" s="23"/>
       <c r="H929" s="5"/>
       <c r="I929" s="5"/>
       <c r="J929" s="5"/>
     </row>
     <row r="930" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A930" s="24"/>
+      <c r="A930" s="23"/>
       <c r="H930" s="5"/>
       <c r="I930" s="5"/>
       <c r="J930" s="5"/>
     </row>
     <row r="931" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A931" s="24"/>
+      <c r="A931" s="23"/>
       <c r="H931" s="5"/>
       <c r="I931" s="5"/>
       <c r="J931" s="5"/>
     </row>
     <row r="932" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A932" s="24"/>
+      <c r="A932" s="23"/>
       <c r="H932" s="5"/>
       <c r="I932" s="5"/>
       <c r="J932" s="5"/>
     </row>
     <row r="933" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A933" s="24"/>
+      <c r="A933" s="23"/>
       <c r="H933" s="5"/>
       <c r="I933" s="5"/>
       <c r="J933" s="5"/>
     </row>
     <row r="934" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A934" s="24"/>
+      <c r="A934" s="23"/>
       <c r="H934" s="5"/>
       <c r="I934" s="5"/>
       <c r="J934" s="5"/>
     </row>
     <row r="935" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A935" s="24"/>
+      <c r="A935" s="23"/>
       <c r="H935" s="5"/>
       <c r="I935" s="5"/>
       <c r="J935" s="5"/>
     </row>
     <row r="936" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A936" s="24"/>
+      <c r="A936" s="23"/>
       <c r="H936" s="5"/>
       <c r="I936" s="5"/>
       <c r="J936" s="5"/>
     </row>
     <row r="937" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A937" s="24"/>
+      <c r="A937" s="23"/>
       <c r="H937" s="5"/>
       <c r="I937" s="5"/>
       <c r="J937" s="5"/>
     </row>
     <row r="938" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A938" s="24"/>
+      <c r="A938" s="23"/>
       <c r="H938" s="5"/>
       <c r="I938" s="5"/>
       <c r="J938" s="5"/>
     </row>
     <row r="939" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A939" s="24"/>
+      <c r="A939" s="23"/>
       <c r="H939" s="5"/>
       <c r="I939" s="5"/>
       <c r="J939" s="5"/>
     </row>
     <row r="940" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A940" s="24"/>
+      <c r="A940" s="23"/>
       <c r="H940" s="5"/>
       <c r="I940" s="5"/>
       <c r="J940" s="5"/>
     </row>
     <row r="941" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A941" s="24"/>
+      <c r="A941" s="23"/>
       <c r="H941" s="5"/>
       <c r="I941" s="5"/>
       <c r="J941" s="5"/>
     </row>
     <row r="942" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A942" s="24"/>
+      <c r="A942" s="23"/>
       <c r="H942" s="5"/>
       <c r="I942" s="5"/>
       <c r="J942" s="5"/>
     </row>
     <row r="943" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A943" s="24"/>
+      <c r="A943" s="23"/>
       <c r="H943" s="5"/>
       <c r="I943" s="5"/>
       <c r="J943" s="5"/>
     </row>
     <row r="944" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A944" s="24"/>
+      <c r="A944" s="23"/>
       <c r="H944" s="5"/>
       <c r="I944" s="5"/>
       <c r="J944" s="5"/>
     </row>
     <row r="945" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A945" s="24"/>
+      <c r="A945" s="23"/>
       <c r="H945" s="5"/>
       <c r="I945" s="5"/>
       <c r="J945" s="5"/>
     </row>
     <row r="946" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A946" s="24"/>
+      <c r="A946" s="23"/>
       <c r="H946" s="5"/>
       <c r="I946" s="5"/>
       <c r="J946" s="5"/>
     </row>
     <row r="947" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A947" s="24"/>
+      <c r="A947" s="23"/>
       <c r="H947" s="5"/>
       <c r="I947" s="5"/>
       <c r="J947" s="5"/>
     </row>
     <row r="948" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A948" s="24"/>
+      <c r="A948" s="23"/>
       <c r="H948" s="5"/>
       <c r="I948" s="5"/>
       <c r="J948" s="5"/>
     </row>
     <row r="949" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A949" s="24"/>
+      <c r="A949" s="23"/>
       <c r="H949" s="5"/>
       <c r="I949" s="5"/>
       <c r="J949" s="5"/>
     </row>
     <row r="950" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A950" s="24"/>
+      <c r="A950" s="23"/>
       <c r="H950" s="5"/>
       <c r="I950" s="5"/>
       <c r="J950" s="5"/>
     </row>
     <row r="951" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A951" s="24"/>
+      <c r="A951" s="23"/>
       <c r="H951" s="5"/>
       <c r="I951" s="5"/>
       <c r="J951" s="5"/>
     </row>
     <row r="952" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A952" s="24"/>
+      <c r="A952" s="23"/>
       <c r="H952" s="5"/>
       <c r="I952" s="5"/>
       <c r="J952" s="5"/>
     </row>
     <row r="953" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A953" s="24"/>
+      <c r="A953" s="23"/>
       <c r="H953" s="5"/>
       <c r="I953" s="5"/>
       <c r="J953" s="5"/>
     </row>
     <row r="954" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A954" s="24"/>
+      <c r="A954" s="23"/>
       <c r="H954" s="5"/>
       <c r="I954" s="5"/>
       <c r="J954" s="5"/>
     </row>
     <row r="955" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A955" s="24"/>
+      <c r="A955" s="23"/>
       <c r="H955" s="5"/>
       <c r="I955" s="5"/>
       <c r="J955" s="5"/>
     </row>
     <row r="956" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A956" s="24"/>
+      <c r="A956" s="23"/>
       <c r="H956" s="5"/>
       <c r="I956" s="5"/>
       <c r="J956" s="5"/>
     </row>
     <row r="957" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A957" s="24"/>
+      <c r="A957" s="23"/>
       <c r="H957" s="5"/>
       <c r="I957" s="5"/>
       <c r="J957" s="5"/>
     </row>
     <row r="958" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A958" s="24"/>
+      <c r="A958" s="23"/>
       <c r="H958" s="5"/>
       <c r="I958" s="5"/>
       <c r="J958" s="5"/>
     </row>
     <row r="959" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A959" s="24"/>
+      <c r="A959" s="23"/>
       <c r="H959" s="5"/>
       <c r="I959" s="5"/>
       <c r="J959" s="5"/>
     </row>
     <row r="960" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A960" s="24"/>
+      <c r="A960" s="23"/>
       <c r="H960" s="5"/>
       <c r="I960" s="5"/>
       <c r="J960" s="5"/>
     </row>
     <row r="961" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A961" s="24"/>
+      <c r="A961" s="23"/>
       <c r="H961" s="5"/>
       <c r="I961" s="5"/>
       <c r="J961" s="5"/>
     </row>
     <row r="962" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A962" s="24"/>
+      <c r="A962" s="23"/>
       <c r="H962" s="5"/>
       <c r="I962" s="5"/>
       <c r="J962" s="5"/>
     </row>
     <row r="963" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A963" s="24"/>
+      <c r="A963" s="23"/>
       <c r="H963" s="5"/>
       <c r="I963" s="5"/>
       <c r="J963" s="5"/>
     </row>
     <row r="964" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A964" s="24"/>
+      <c r="A964" s="23"/>
       <c r="H964" s="5"/>
       <c r="I964" s="5"/>
       <c r="J964" s="5"/>
     </row>
     <row r="965" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A965" s="24"/>
+      <c r="A965" s="23"/>
       <c r="H965" s="5"/>
       <c r="I965" s="5"/>
       <c r="J965" s="5"/>
     </row>
     <row r="966" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A966" s="24"/>
+      <c r="A966" s="23"/>
       <c r="H966" s="5"/>
       <c r="I966" s="5"/>
       <c r="J966" s="5"/>
     </row>
     <row r="967" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A967" s="24"/>
+      <c r="A967" s="23"/>
       <c r="H967" s="5"/>
       <c r="I967" s="5"/>
       <c r="J967" s="5"/>
     </row>
     <row r="968" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A968" s="24"/>
+      <c r="A968" s="23"/>
       <c r="H968" s="5"/>
       <c r="I968" s="5"/>
       <c r="J968" s="5"/>
     </row>
     <row r="969" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A969" s="24"/>
+      <c r="A969" s="23"/>
       <c r="H969" s="5"/>
       <c r="I969" s="5"/>
       <c r="J969" s="5"/>
     </row>
     <row r="970" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A970" s="24"/>
+      <c r="A970" s="23"/>
       <c r="H970" s="5"/>
       <c r="I970" s="5"/>
       <c r="J970" s="5"/>
     </row>
     <row r="971" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A971" s="24"/>
+      <c r="A971" s="23"/>
       <c r="H971" s="5"/>
       <c r="I971" s="5"/>
       <c r="J971" s="5"/>
     </row>
     <row r="972" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A972" s="24"/>
+      <c r="A972" s="23"/>
       <c r="H972" s="5"/>
       <c r="I972" s="5"/>
       <c r="J972" s="5"/>
     </row>
     <row r="973" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A973" s="24"/>
+      <c r="A973" s="23"/>
       <c r="H973" s="5"/>
       <c r="I973" s="5"/>
       <c r="J973" s="5"/>
     </row>
     <row r="974" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A974" s="24"/>
+      <c r="A974" s="23"/>
       <c r="H974" s="5"/>
       <c r="I974" s="5"/>
       <c r="J974" s="5"/>
     </row>
     <row r="975" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A975" s="24"/>
+      <c r="A975" s="23"/>
       <c r="H975" s="5"/>
       <c r="I975" s="5"/>
       <c r="J975" s="5"/>
     </row>
     <row r="976" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A976" s="24"/>
+      <c r="A976" s="23"/>
       <c r="H976" s="5"/>
       <c r="I976" s="5"/>
       <c r="J976" s="5"/>
     </row>
     <row r="977" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A977" s="24"/>
+      <c r="A977" s="23"/>
       <c r="H977" s="5"/>
       <c r="I977" s="5"/>
       <c r="J977" s="5"/>
     </row>
     <row r="978" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A978" s="24"/>
+      <c r="A978" s="23"/>
       <c r="H978" s="5"/>
       <c r="I978" s="5"/>
       <c r="J978" s="5"/>
     </row>
     <row r="979" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A979" s="24"/>
+      <c r="A979" s="23"/>
       <c r="H979" s="5"/>
       <c r="I979" s="5"/>
       <c r="J979" s="5"/>
     </row>
     <row r="980" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A980" s="24"/>
+      <c r="A980" s="23"/>
       <c r="H980" s="5"/>
       <c r="I980" s="5"/>
       <c r="J980" s="5"/>
     </row>
     <row r="981" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A981" s="24"/>
+      <c r="A981" s="23"/>
       <c r="H981" s="5"/>
       <c r="I981" s="5"/>
       <c r="J981" s="5"/>
     </row>
     <row r="982" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A982" s="24"/>
+      <c r="A982" s="23"/>
       <c r="H982" s="5"/>
       <c r="I982" s="5"/>
       <c r="J982" s="5"/>
     </row>
     <row r="983" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A983" s="24"/>
+      <c r="A983" s="23"/>
       <c r="H983" s="5"/>
       <c r="I983" s="5"/>
       <c r="J983" s="5"/>
     </row>
     <row r="984" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A984" s="24"/>
+      <c r="A984" s="23"/>
       <c r="H984" s="5"/>
       <c r="I984" s="5"/>
       <c r="J984" s="5"/>
     </row>
     <row r="985" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A985" s="24"/>
+      <c r="A985" s="23"/>
       <c r="H985" s="5"/>
       <c r="I985" s="5"/>
       <c r="J985" s="5"/>
     </row>
     <row r="986" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A986" s="24"/>
+      <c r="A986" s="23"/>
       <c r="H986" s="5"/>
       <c r="I986" s="5"/>
       <c r="J986" s="5"/>
     </row>
     <row r="987" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A987" s="24"/>
+      <c r="A987" s="23"/>
       <c r="H987" s="5"/>
       <c r="I987" s="5"/>
       <c r="J987" s="5"/>
     </row>
     <row r="988" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A988" s="24"/>
+      <c r="A988" s="23"/>
       <c r="H988" s="5"/>
       <c r="I988" s="5"/>
       <c r="J988" s="5"/>
     </row>
     <row r="989" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A989" s="24"/>
+      <c r="A989" s="23"/>
       <c r="H989" s="5"/>
       <c r="I989" s="5"/>
       <c r="J989" s="5"/>
     </row>
     <row r="990" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A990" s="24"/>
+      <c r="A990" s="23"/>
       <c r="H990" s="5"/>
       <c r="I990" s="5"/>
       <c r="J990" s="5"/>
     </row>
     <row r="991" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A991" s="24"/>
+      <c r="A991" s="23"/>
       <c r="H991" s="5"/>
       <c r="I991" s="5"/>
       <c r="J991" s="5"/>
     </row>
     <row r="992" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A992" s="24"/>
+      <c r="A992" s="23"/>
       <c r="H992" s="5"/>
       <c r="I992" s="5"/>
       <c r="J992" s="5"/>
     </row>
     <row r="993" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A993" s="24"/>
+      <c r="A993" s="23"/>
       <c r="H993" s="5"/>
       <c r="I993" s="5"/>
       <c r="J993" s="5"/>
     </row>
     <row r="994" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A994" s="24"/>
+      <c r="A994" s="23"/>
       <c r="H994" s="5"/>
       <c r="I994" s="5"/>
       <c r="J994" s="5"/>
     </row>
     <row r="995" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A995" s="24"/>
+      <c r="A995" s="23"/>
       <c r="H995" s="5"/>
       <c r="I995" s="5"/>
       <c r="J995" s="5"/>
     </row>
     <row r="996" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A996" s="24"/>
+      <c r="A996" s="23"/>
       <c r="H996" s="5"/>
       <c r="I996" s="5"/>
       <c r="J996" s="5"/>
     </row>
     <row r="997" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A997" s="24"/>
+      <c r="A997" s="23"/>
       <c r="H997" s="5"/>
       <c r="I997" s="5"/>
       <c r="J997" s="5"/>
     </row>
     <row r="998" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A998" s="24"/>
+      <c r="A998" s="23"/>
       <c r="H998" s="5"/>
       <c r="I998" s="5"/>
       <c r="J998" s="5"/>
@@ -7865,7 +7878,7 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="G21:J21"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K1" r:id="rId1"/>
     <hyperlink ref="L1" r:id="rId2"/>
